--- a/data/Kelp_Pam.xlsx
+++ b/data/Kelp_Pam.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaislebrun/Desktop/These/Meso Tromso 2022/MHV_Tromso/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C38640-FDDB-7740-9A8B-05C7F8A3CEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C00E1-92AF-124A-BD48-A480C354064F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kelp" sheetId="1" r:id="rId1"/>
     <sheet name="Parameters used" sheetId="2" r:id="rId2"/>
-    <sheet name="Corralline algae" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -145,51 +144,6 @@
     <t>CORRALINE ALGAE</t>
   </si>
   <si>
-    <t>C0M0</t>
-  </si>
-  <si>
-    <t>C3M0</t>
-  </si>
-  <si>
-    <t>C3M2</t>
-  </si>
-  <si>
-    <t>half bleached</t>
-  </si>
-  <si>
-    <t>C1M1</t>
-  </si>
-  <si>
-    <t>77/67?</t>
-  </si>
-  <si>
-    <t>C2M1</t>
-  </si>
-  <si>
-    <t>C1M2</t>
-  </si>
-  <si>
-    <t>C2M2</t>
-  </si>
-  <si>
-    <t>C3M1</t>
-  </si>
-  <si>
-    <t>C0M2</t>
-  </si>
-  <si>
-    <t>C0M1</t>
-  </si>
-  <si>
-    <t>C1M0</t>
-  </si>
-  <si>
-    <t>C2M0</t>
-  </si>
-  <si>
-    <t>a little bleached</t>
-  </si>
-  <si>
     <t>exp_day1</t>
   </si>
   <si>
@@ -210,7 +164,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -238,19 +192,20 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -265,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -275,11 +230,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +451,7 @@
   </sheetPr>
   <dimension ref="A1:M999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B254" sqref="B254"/>
     </sheetView>
@@ -3508,7 +3459,7 @@
         <v>44749</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>23</v>
@@ -3549,7 +3500,7 @@
         <v>44749</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>14</v>
@@ -3590,7 +3541,7 @@
         <v>44749</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>14</v>
@@ -3631,7 +3582,7 @@
         <v>44749</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>22</v>
@@ -3675,7 +3626,7 @@
         <v>44749</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>22</v>
@@ -3719,7 +3670,7 @@
         <v>44749</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>23</v>
@@ -3763,7 +3714,7 @@
         <v>44749</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -3807,7 +3758,7 @@
         <v>44749</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>23</v>
@@ -3851,7 +3802,7 @@
         <v>44749</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>23</v>
@@ -3892,7 +3843,7 @@
         <v>44749</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>23</v>
@@ -3936,7 +3887,7 @@
         <v>44749</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>22</v>
@@ -3980,7 +3931,7 @@
         <v>44749</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>22</v>
@@ -4024,7 +3975,7 @@
         <v>44749</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
@@ -4065,7 +4016,7 @@
         <v>44749</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>14</v>
@@ -4106,7 +4057,7 @@
         <v>44749</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>22</v>
@@ -4147,7 +4098,7 @@
         <v>44749</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>22</v>
@@ -4188,7 +4139,7 @@
         <v>44749</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
@@ -4229,7 +4180,7 @@
         <v>44749</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>14</v>
@@ -4270,7 +4221,7 @@
         <v>44749</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>23</v>
@@ -4311,7 +4262,7 @@
         <v>44749</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>23</v>
@@ -4352,7 +4303,7 @@
         <v>44749</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
@@ -4393,7 +4344,7 @@
         <v>44749</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>14</v>
@@ -4434,7 +4385,7 @@
         <v>44749</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>22</v>
@@ -4475,7 +4426,7 @@
         <v>44749</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>23</v>
@@ -4516,7 +4467,7 @@
         <v>44749</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>23</v>
@@ -4557,7 +4508,7 @@
         <v>44749</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>22</v>
@@ -4598,7 +4549,7 @@
         <v>44749</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>14</v>
@@ -4639,7 +4590,7 @@
         <v>44749</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>14</v>
@@ -4680,7 +4631,7 @@
         <v>44749</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>22</v>
@@ -4721,7 +4672,7 @@
         <v>44749</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>22</v>
@@ -4762,7 +4713,7 @@
         <v>44749</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>23</v>
@@ -4803,7 +4754,7 @@
         <v>44749</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>23</v>
@@ -4844,7 +4795,7 @@
         <v>44749</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>14</v>
@@ -4885,7 +4836,7 @@
         <v>44749</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>22</v>
@@ -4926,7 +4877,7 @@
         <v>44749</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>22</v>
@@ -4964,7 +4915,7 @@
         <v>44749</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>23</v>
@@ -5005,7 +4956,7 @@
         <v>44749</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>23</v>
@@ -5046,7 +4997,7 @@
         <v>44749</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>23</v>
@@ -5087,7 +5038,7 @@
         <v>44749</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>23</v>
@@ -5125,7 +5076,7 @@
         <v>44749</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>22</v>
@@ -5166,7 +5117,7 @@
         <v>44749</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>22</v>
@@ -5207,7 +5158,7 @@
         <v>44749</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>14</v>
@@ -5248,7 +5199,7 @@
         <v>44749</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>14</v>
@@ -5289,7 +5240,7 @@
         <v>44749</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>23</v>
@@ -5330,7 +5281,7 @@
         <v>44749</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>23</v>
@@ -5371,7 +5322,7 @@
         <v>44749</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>14</v>
@@ -5412,7 +5363,7 @@
         <v>44749</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>14</v>
@@ -5453,7 +5404,7 @@
         <v>44749</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>22</v>
@@ -5494,7 +5445,7 @@
         <v>44749</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>22</v>
@@ -5535,7 +5486,7 @@
         <v>44753</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>22</v>
@@ -5576,7 +5527,7 @@
         <v>44753</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>22</v>
@@ -5617,7 +5568,7 @@
         <v>44753</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>14</v>
@@ -5658,7 +5609,7 @@
         <v>44753</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>14</v>
@@ -5699,7 +5650,7 @@
         <v>44753</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>23</v>
@@ -5740,7 +5691,7 @@
         <v>44753</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>23</v>
@@ -5781,7 +5732,7 @@
         <v>44753</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>22</v>
@@ -5822,7 +5773,7 @@
         <v>44753</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>22</v>
@@ -5863,7 +5814,7 @@
         <v>44753</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>14</v>
@@ -5904,7 +5855,7 @@
         <v>44753</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>14</v>
@@ -5945,7 +5896,7 @@
         <v>44753</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>23</v>
@@ -5986,7 +5937,7 @@
         <v>44753</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>23</v>
@@ -6027,7 +5978,7 @@
         <v>44753</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>23</v>
@@ -6068,7 +6019,7 @@
         <v>44753</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>23</v>
@@ -6109,7 +6060,7 @@
         <v>44753</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>22</v>
@@ -6150,7 +6101,7 @@
         <v>44753</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>22</v>
@@ -6191,7 +6142,7 @@
         <v>44753</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>14</v>
@@ -6232,7 +6183,7 @@
         <v>44753</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>14</v>
@@ -6273,7 +6224,7 @@
         <v>44753</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>23</v>
@@ -6314,7 +6265,7 @@
         <v>44753</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>23</v>
@@ -6355,7 +6306,7 @@
         <v>44753</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>22</v>
@@ -6396,7 +6347,7 @@
         <v>44753</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>22</v>
@@ -6437,7 +6388,7 @@
         <v>44753</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>14</v>
@@ -6478,7 +6429,7 @@
         <v>44753</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>22</v>
@@ -6519,7 +6470,7 @@
         <v>44753</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>22</v>
@@ -6560,7 +6511,7 @@
         <v>44753</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>14</v>
@@ -6601,7 +6552,7 @@
         <v>44753</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>14</v>
@@ -6642,7 +6593,7 @@
         <v>44753</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>23</v>
@@ -6683,7 +6634,7 @@
         <v>44753</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>23</v>
@@ -6724,7 +6675,7 @@
         <v>44753</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>22</v>
@@ -6765,7 +6716,7 @@
         <v>44753</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>22</v>
@@ -6806,7 +6757,7 @@
         <v>44753</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>14</v>
@@ -6847,7 +6798,7 @@
         <v>44753</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>14</v>
@@ -6888,7 +6839,7 @@
         <v>44753</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>23</v>
@@ -6929,7 +6880,7 @@
         <v>44753</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>23</v>
@@ -6970,7 +6921,7 @@
         <v>44753</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>23</v>
@@ -7011,7 +6962,7 @@
         <v>44753</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>14</v>
@@ -7052,7 +7003,7 @@
         <v>44753</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>22</v>
@@ -7093,7 +7044,7 @@
         <v>44753</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>22</v>
@@ -7134,7 +7085,7 @@
         <v>44753</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>23</v>
@@ -7175,7 +7126,7 @@
         <v>44753</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>22</v>
@@ -7216,7 +7167,7 @@
         <v>44753</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>22</v>
@@ -7257,7 +7208,7 @@
         <v>44753</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>14</v>
@@ -7298,7 +7249,7 @@
         <v>44753</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>14</v>
@@ -7339,7 +7290,7 @@
         <v>44753</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>23</v>
@@ -7380,7 +7331,7 @@
         <v>44753</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>23</v>
@@ -7421,7 +7372,7 @@
         <v>44753</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>23</v>
@@ -7462,7 +7413,7 @@
         <v>44753</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>23</v>
@@ -7503,7 +7454,7 @@
         <v>44753</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>22</v>
@@ -7544,7 +7495,7 @@
         <v>44753</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>22</v>
@@ -7585,7 +7536,7 @@
         <v>44753</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>14</v>
@@ -7626,7 +7577,7 @@
         <v>44753</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>14</v>
@@ -7667,7 +7618,7 @@
         <v>44756</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>23</v>
@@ -7708,7 +7659,7 @@
         <v>44756</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>23</v>
@@ -7749,7 +7700,7 @@
         <v>44756</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>22</v>
@@ -7790,7 +7741,7 @@
         <v>44756</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>22</v>
@@ -7831,7 +7782,7 @@
         <v>44756</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>14</v>
@@ -7872,7 +7823,7 @@
         <v>44756</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>14</v>
@@ -7913,7 +7864,7 @@
         <v>44756</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>14</v>
@@ -7954,7 +7905,7 @@
         <v>44756</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>22</v>
@@ -7995,7 +7946,7 @@
         <v>44756</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>22</v>
@@ -8036,7 +7987,7 @@
         <v>44756</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>14</v>
@@ -8077,7 +8028,7 @@
         <v>44756</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>23</v>
@@ -8118,7 +8069,7 @@
         <v>44756</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>23</v>
@@ -8159,7 +8110,7 @@
         <v>44756</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>23</v>
@@ -8200,7 +8151,7 @@
         <v>44756</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>23</v>
@@ -8241,7 +8192,7 @@
         <v>44756</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>22</v>
@@ -8282,7 +8233,7 @@
         <v>44756</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>14</v>
@@ -8323,7 +8274,7 @@
         <v>44756</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>14</v>
@@ -8364,7 +8315,7 @@
         <v>44756</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>22</v>
@@ -8405,7 +8356,7 @@
         <v>44756</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>23</v>
@@ -8446,7 +8397,7 @@
         <v>44756</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>23</v>
@@ -8490,7 +8441,7 @@
         <v>44756</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>14</v>
@@ -8531,7 +8482,7 @@
         <v>44756</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>22</v>
@@ -8572,7 +8523,7 @@
         <v>44756</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>22</v>
@@ -8613,7 +8564,7 @@
         <v>44756</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>14</v>
@@ -8654,7 +8605,7 @@
         <v>44756</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>23</v>
@@ -8695,7 +8646,7 @@
         <v>44756</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>23</v>
@@ -8736,7 +8687,7 @@
         <v>44756</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>14</v>
@@ -8777,7 +8728,7 @@
         <v>44756</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>14</v>
@@ -8818,7 +8769,7 @@
         <v>44756</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>22</v>
@@ -8859,7 +8810,7 @@
         <v>44756</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>22</v>
@@ -8900,7 +8851,7 @@
         <v>44756</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>23</v>
@@ -8941,7 +8892,7 @@
         <v>44756</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>22</v>
@@ -8982,7 +8933,7 @@
         <v>44756</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>22</v>
@@ -9023,7 +8974,7 @@
         <v>44756</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>14</v>
@@ -9064,7 +9015,7 @@
         <v>44756</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>14</v>
@@ -9105,7 +9056,7 @@
         <v>44756</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>23</v>
@@ -9146,7 +9097,7 @@
         <v>44760</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>23</v>
@@ -9187,7 +9138,7 @@
         <v>44760</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>23</v>
@@ -9228,7 +9179,7 @@
         <v>44760</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>14</v>
@@ -9269,7 +9220,7 @@
         <v>44760</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>22</v>
@@ -9310,7 +9261,7 @@
         <v>44760</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>22</v>
@@ -9351,7 +9302,7 @@
         <v>44760</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>14</v>
@@ -9392,7 +9343,7 @@
         <v>44760</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>14</v>
@@ -9433,7 +9384,7 @@
         <v>44760</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>22</v>
@@ -9474,7 +9425,7 @@
         <v>44760</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>14</v>
@@ -9515,7 +9466,7 @@
         <v>44760</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>22</v>
@@ -9556,7 +9507,7 @@
         <v>44760</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>23</v>
@@ -9597,7 +9548,7 @@
         <v>44760</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>23</v>
@@ -9638,7 +9589,7 @@
         <v>44760</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>22</v>
@@ -9679,7 +9630,7 @@
         <v>44760</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>22</v>
@@ -9720,7 +9671,7 @@
         <v>44760</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>14</v>
@@ -9761,7 +9712,7 @@
         <v>44760</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>14</v>
@@ -9802,7 +9753,7 @@
         <v>44760</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>23</v>
@@ -9843,7 +9794,7 @@
         <v>44760</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>23</v>
@@ -9884,7 +9835,7 @@
         <v>44760</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>22</v>
@@ -9925,7 +9876,7 @@
         <v>44760</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>22</v>
@@ -9966,7 +9917,7 @@
         <v>44760</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>14</v>
@@ -10007,7 +9958,7 @@
         <v>44760</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>14</v>
@@ -10048,7 +9999,7 @@
         <v>44760</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>23</v>
@@ -10089,7 +10040,7 @@
         <v>44760</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>23</v>
@@ -10130,7 +10081,7 @@
         <v>44760</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>14</v>
@@ -10171,7 +10122,7 @@
         <v>44760</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>14</v>
@@ -10212,7 +10163,7 @@
         <v>44760</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>22</v>
@@ -10253,7 +10204,7 @@
         <v>44760</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>22</v>
@@ -10294,7 +10245,7 @@
         <v>44760</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>23</v>
@@ -10335,7 +10286,7 @@
         <v>44760</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>23</v>
@@ -10376,7 +10327,7 @@
         <v>44760</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>14</v>
@@ -10417,7 +10368,7 @@
         <v>44760</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>14</v>
@@ -10458,7 +10409,7 @@
         <v>44760</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>22</v>
@@ -10499,7 +10450,7 @@
         <v>44760</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>22</v>
@@ -10540,7 +10491,7 @@
         <v>44760</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>23</v>
@@ -10584,7 +10535,7 @@
         <v>44760</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>23</v>
@@ -17000,3441 +16951,3076 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:H1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H57" s="7"/>
+    </row>
+    <row r="58" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H58" s="7"/>
+    </row>
+    <row r="59" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H59" s="7"/>
+    </row>
+    <row r="60" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H60" s="7"/>
+    </row>
+    <row r="61" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H61" s="7"/>
+    </row>
+    <row r="62" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="63" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H63" s="7"/>
+    </row>
+    <row r="64" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H64" s="7"/>
+    </row>
+    <row r="65" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H65" s="7"/>
+    </row>
+    <row r="66" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H66" s="7"/>
+    </row>
+    <row r="67" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H67" s="7"/>
+    </row>
+    <row r="68" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H68" s="7"/>
+    </row>
+    <row r="69" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H69" s="7"/>
+    </row>
+    <row r="70" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H70" s="7"/>
+    </row>
+    <row r="71" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H71" s="7"/>
+    </row>
+    <row r="72" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H72" s="7"/>
+    </row>
+    <row r="73" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H73" s="7"/>
+    </row>
+    <row r="74" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H74" s="7"/>
+    </row>
+    <row r="75" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H75" s="7"/>
+    </row>
+    <row r="76" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H76" s="7"/>
+    </row>
+    <row r="77" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H77" s="7"/>
+    </row>
+    <row r="78" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H78" s="7"/>
+    </row>
+    <row r="79" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H79" s="7"/>
+    </row>
+    <row r="80" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H80" s="7"/>
+    </row>
+    <row r="81" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H81" s="7"/>
+    </row>
+    <row r="82" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H82" s="7"/>
+    </row>
+    <row r="83" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H83" s="7"/>
+    </row>
+    <row r="84" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H84" s="7"/>
+    </row>
+    <row r="85" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H85" s="7"/>
+    </row>
+    <row r="86" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H86" s="7"/>
+    </row>
+    <row r="87" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H87" s="7"/>
+    </row>
+    <row r="88" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H88" s="7"/>
+    </row>
+    <row r="89" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H89" s="7"/>
+    </row>
+    <row r="90" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H90" s="7"/>
+    </row>
+    <row r="91" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H91" s="7"/>
+    </row>
+    <row r="92" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H92" s="7"/>
+    </row>
+    <row r="93" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H93" s="7"/>
+    </row>
+    <row r="94" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H94" s="7"/>
+    </row>
+    <row r="95" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H95" s="7"/>
+    </row>
+    <row r="96" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H96" s="7"/>
+    </row>
+    <row r="97" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H97" s="7"/>
+    </row>
+    <row r="98" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H98" s="7"/>
+    </row>
+    <row r="99" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H99" s="7"/>
+    </row>
+    <row r="100" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H100" s="7"/>
+    </row>
+    <row r="101" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H101" s="7"/>
+    </row>
+    <row r="102" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H102" s="7"/>
+    </row>
+    <row r="103" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H103" s="7"/>
+    </row>
+    <row r="104" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H104" s="7"/>
+    </row>
+    <row r="105" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H105" s="7"/>
+    </row>
+    <row r="106" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H106" s="7"/>
+    </row>
+    <row r="107" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H107" s="7"/>
+    </row>
+    <row r="108" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H108" s="7"/>
+    </row>
+    <row r="109" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H109" s="7"/>
+    </row>
+    <row r="110" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H110" s="7"/>
+    </row>
+    <row r="111" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H111" s="7"/>
+    </row>
+    <row r="112" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H112" s="7"/>
+    </row>
+    <row r="113" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H113" s="7"/>
+    </row>
+    <row r="114" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H114" s="7"/>
+    </row>
+    <row r="115" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H115" s="7"/>
+    </row>
+    <row r="116" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H116" s="7"/>
+    </row>
+    <row r="117" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H117" s="7"/>
+    </row>
+    <row r="118" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H118" s="7"/>
+    </row>
+    <row r="119" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H119" s="7"/>
+    </row>
+    <row r="120" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H120" s="7"/>
+    </row>
+    <row r="121" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H121" s="7"/>
+    </row>
+    <row r="122" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H122" s="7"/>
+    </row>
+    <row r="123" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H123" s="7"/>
+    </row>
+    <row r="124" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H124" s="7"/>
+    </row>
+    <row r="125" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H125" s="7"/>
+    </row>
+    <row r="126" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H126" s="7"/>
+    </row>
+    <row r="127" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H127" s="7"/>
+    </row>
+    <row r="128" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H128" s="7"/>
+    </row>
+    <row r="129" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H129" s="7"/>
+    </row>
+    <row r="130" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H130" s="7"/>
+    </row>
+    <row r="131" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H131" s="7"/>
+    </row>
+    <row r="132" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H132" s="7"/>
+    </row>
+    <row r="133" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H133" s="7"/>
+    </row>
+    <row r="134" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H134" s="7"/>
+    </row>
+    <row r="135" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H135" s="7"/>
+    </row>
+    <row r="136" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H136" s="7"/>
+    </row>
+    <row r="137" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H137" s="7"/>
+    </row>
+    <row r="138" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H138" s="7"/>
+    </row>
+    <row r="139" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H139" s="7"/>
+    </row>
+    <row r="140" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H140" s="7"/>
+    </row>
+    <row r="141" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H141" s="7"/>
+    </row>
+    <row r="142" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H142" s="7"/>
+    </row>
+    <row r="143" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H143" s="7"/>
+    </row>
+    <row r="144" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H144" s="7"/>
+    </row>
+    <row r="145" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H145" s="7"/>
+    </row>
+    <row r="146" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H146" s="7"/>
+    </row>
+    <row r="147" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H147" s="7"/>
+    </row>
+    <row r="148" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H148" s="7"/>
+    </row>
+    <row r="149" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H149" s="7"/>
+    </row>
+    <row r="150" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H150" s="7"/>
+    </row>
+    <row r="151" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H151" s="7"/>
+    </row>
+    <row r="152" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H152" s="7"/>
+    </row>
+    <row r="153" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H153" s="7"/>
+    </row>
+    <row r="154" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H154" s="7"/>
+    </row>
+    <row r="155" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H155" s="7"/>
+    </row>
+    <row r="156" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H156" s="7"/>
+    </row>
+    <row r="157" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H157" s="7"/>
+    </row>
+    <row r="158" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H158" s="7"/>
+    </row>
+    <row r="159" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H159" s="7"/>
+    </row>
+    <row r="160" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H160" s="7"/>
+    </row>
+    <row r="161" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H161" s="7"/>
+    </row>
+    <row r="162" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H162" s="7"/>
+    </row>
+    <row r="163" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H163" s="7"/>
+    </row>
+    <row r="164" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H164" s="7"/>
+    </row>
+    <row r="165" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H165" s="7"/>
+    </row>
+    <row r="166" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H166" s="7"/>
+    </row>
+    <row r="167" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H167" s="7"/>
+    </row>
+    <row r="168" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H168" s="7"/>
+    </row>
+    <row r="169" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H169" s="7"/>
+    </row>
+    <row r="170" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H170" s="7"/>
+    </row>
+    <row r="171" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H171" s="7"/>
+    </row>
+    <row r="172" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H172" s="7"/>
+    </row>
+    <row r="173" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H173" s="7"/>
+    </row>
+    <row r="174" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H174" s="7"/>
+    </row>
+    <row r="175" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H175" s="7"/>
+    </row>
+    <row r="176" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H176" s="7"/>
+    </row>
+    <row r="177" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H177" s="7"/>
+    </row>
+    <row r="178" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H178" s="7"/>
+    </row>
+    <row r="179" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H179" s="7"/>
+    </row>
+    <row r="180" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H180" s="7"/>
+    </row>
+    <row r="181" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H181" s="7"/>
+    </row>
+    <row r="182" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H182" s="7"/>
+    </row>
+    <row r="183" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H183" s="7"/>
+    </row>
+    <row r="184" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H184" s="7"/>
+    </row>
+    <row r="185" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H185" s="7"/>
+    </row>
+    <row r="186" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H186" s="7"/>
+    </row>
+    <row r="187" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H187" s="7"/>
+    </row>
+    <row r="188" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H188" s="7"/>
+    </row>
+    <row r="189" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H189" s="7"/>
+    </row>
+    <row r="190" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H190" s="7"/>
+    </row>
+    <row r="191" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H191" s="7"/>
+    </row>
+    <row r="192" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H192" s="7"/>
+    </row>
+    <row r="193" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H193" s="7"/>
+    </row>
+    <row r="194" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H194" s="7"/>
+    </row>
+    <row r="195" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H195" s="7"/>
+    </row>
+    <row r="196" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H196" s="7"/>
+    </row>
+    <row r="197" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H197" s="7"/>
+    </row>
+    <row r="198" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H198" s="7"/>
+    </row>
+    <row r="199" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H199" s="7"/>
+    </row>
+    <row r="200" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H200" s="7"/>
+    </row>
+    <row r="201" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H201" s="7"/>
+    </row>
+    <row r="202" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H202" s="7"/>
+    </row>
+    <row r="203" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H203" s="7"/>
+    </row>
+    <row r="204" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H204" s="7"/>
+    </row>
+    <row r="205" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H205" s="7"/>
+    </row>
+    <row r="206" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H206" s="7"/>
+    </row>
+    <row r="207" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H207" s="7"/>
+    </row>
+    <row r="208" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H208" s="7"/>
+    </row>
+    <row r="209" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H209" s="7"/>
+    </row>
+    <row r="210" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H210" s="7"/>
+    </row>
+    <row r="211" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H211" s="7"/>
+    </row>
+    <row r="212" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H212" s="7"/>
+    </row>
+    <row r="213" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H213" s="7"/>
+    </row>
+    <row r="214" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H214" s="7"/>
+    </row>
+    <row r="215" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H215" s="7"/>
+    </row>
+    <row r="216" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H216" s="7"/>
+    </row>
+    <row r="217" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H217" s="7"/>
+    </row>
+    <row r="218" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H218" s="7"/>
+    </row>
+    <row r="219" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H219" s="7"/>
+    </row>
+    <row r="220" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H220" s="7"/>
+    </row>
+    <row r="221" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H221" s="7"/>
+    </row>
+    <row r="222" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H222" s="7"/>
+    </row>
+    <row r="223" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H223" s="7"/>
+    </row>
+    <row r="224" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H224" s="7"/>
+    </row>
+    <row r="225" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H225" s="7"/>
+    </row>
+    <row r="226" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H226" s="7"/>
+    </row>
+    <row r="227" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H227" s="7"/>
+    </row>
+    <row r="228" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H228" s="7"/>
+    </row>
+    <row r="229" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H229" s="7"/>
+    </row>
+    <row r="230" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H230" s="7"/>
+    </row>
+    <row r="231" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H231" s="7"/>
+    </row>
+    <row r="232" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H232" s="7"/>
+    </row>
+    <row r="233" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H233" s="7"/>
+    </row>
+    <row r="234" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H234" s="7"/>
+    </row>
+    <row r="235" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H235" s="7"/>
+    </row>
+    <row r="236" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H236" s="7"/>
+    </row>
+    <row r="237" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H237" s="7"/>
+    </row>
+    <row r="238" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H238" s="7"/>
+    </row>
+    <row r="239" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H239" s="7"/>
+    </row>
+    <row r="240" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H240" s="7"/>
+    </row>
+    <row r="241" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H241" s="7"/>
+    </row>
+    <row r="242" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H242" s="7"/>
+    </row>
+    <row r="243" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H243" s="7"/>
+    </row>
+    <row r="244" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H244" s="7"/>
+    </row>
+    <row r="245" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H245" s="7"/>
+    </row>
+    <row r="246" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H246" s="7"/>
+    </row>
+    <row r="247" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H247" s="7"/>
+    </row>
+    <row r="248" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H248" s="7"/>
+    </row>
+    <row r="249" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H249" s="7"/>
+    </row>
+    <row r="250" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H250" s="7"/>
+    </row>
+    <row r="251" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H251" s="7"/>
+    </row>
+    <row r="252" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H252" s="7"/>
+    </row>
+    <row r="253" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H253" s="7"/>
+    </row>
+    <row r="254" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H254" s="7"/>
+    </row>
+    <row r="255" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H255" s="7"/>
+    </row>
+    <row r="256" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H256" s="7"/>
+    </row>
+    <row r="257" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H257" s="7"/>
+    </row>
+    <row r="258" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H258" s="7"/>
+    </row>
+    <row r="259" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H259" s="7"/>
+    </row>
+    <row r="260" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H260" s="7"/>
+    </row>
+    <row r="261" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H261" s="7"/>
+    </row>
+    <row r="262" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H262" s="7"/>
+    </row>
+    <row r="263" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H263" s="7"/>
+    </row>
+    <row r="264" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H264" s="7"/>
+    </row>
+    <row r="265" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H265" s="7"/>
+    </row>
+    <row r="266" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H266" s="7"/>
+    </row>
+    <row r="267" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H267" s="7"/>
+    </row>
+    <row r="268" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H268" s="7"/>
+    </row>
+    <row r="269" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H269" s="7"/>
+    </row>
+    <row r="270" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H270" s="7"/>
+    </row>
+    <row r="271" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H271" s="7"/>
+    </row>
+    <row r="272" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H272" s="7"/>
+    </row>
+    <row r="273" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H273" s="7"/>
+    </row>
+    <row r="274" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H274" s="7"/>
+    </row>
+    <row r="275" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H275" s="7"/>
+    </row>
+    <row r="276" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H276" s="7"/>
+    </row>
+    <row r="277" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H277" s="7"/>
+    </row>
+    <row r="278" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H278" s="7"/>
+    </row>
+    <row r="279" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H279" s="7"/>
+    </row>
+    <row r="280" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H280" s="7"/>
+    </row>
+    <row r="281" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H281" s="7"/>
+    </row>
+    <row r="282" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H282" s="7"/>
+    </row>
+    <row r="283" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H283" s="7"/>
+    </row>
+    <row r="284" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H284" s="7"/>
+    </row>
+    <row r="285" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H285" s="7"/>
+    </row>
+    <row r="286" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H286" s="7"/>
+    </row>
+    <row r="287" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H287" s="7"/>
+    </row>
+    <row r="288" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H288" s="7"/>
+    </row>
+    <row r="289" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H289" s="7"/>
+    </row>
+    <row r="290" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H290" s="7"/>
+    </row>
+    <row r="291" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H291" s="7"/>
+    </row>
+    <row r="292" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H292" s="7"/>
+    </row>
+    <row r="293" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H293" s="7"/>
+    </row>
+    <row r="294" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H294" s="7"/>
+    </row>
+    <row r="295" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H295" s="7"/>
+    </row>
+    <row r="296" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H296" s="7"/>
+    </row>
+    <row r="297" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H297" s="7"/>
+    </row>
+    <row r="298" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H298" s="7"/>
+    </row>
+    <row r="299" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H299" s="7"/>
+    </row>
+    <row r="300" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H300" s="7"/>
+    </row>
+    <row r="301" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H301" s="7"/>
+    </row>
+    <row r="302" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H302" s="7"/>
+    </row>
+    <row r="303" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H303" s="7"/>
+    </row>
+    <row r="304" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H304" s="7"/>
+    </row>
+    <row r="305" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H305" s="7"/>
+    </row>
+    <row r="306" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H306" s="7"/>
+    </row>
+    <row r="307" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H307" s="7"/>
+    </row>
+    <row r="308" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H308" s="7"/>
+    </row>
+    <row r="309" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H309" s="7"/>
+    </row>
+    <row r="310" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H310" s="7"/>
+    </row>
+    <row r="311" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H311" s="7"/>
+    </row>
+    <row r="312" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H312" s="7"/>
+    </row>
+    <row r="313" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H313" s="7"/>
+    </row>
+    <row r="314" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H314" s="7"/>
+    </row>
+    <row r="315" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H315" s="7"/>
+    </row>
+    <row r="316" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H316" s="7"/>
+    </row>
+    <row r="317" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H317" s="7"/>
+    </row>
+    <row r="318" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H318" s="7"/>
+    </row>
+    <row r="319" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H319" s="7"/>
+    </row>
+    <row r="320" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H320" s="7"/>
+    </row>
+    <row r="321" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H321" s="7"/>
+    </row>
+    <row r="322" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H322" s="7"/>
+    </row>
+    <row r="323" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H323" s="7"/>
+    </row>
+    <row r="324" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H324" s="7"/>
+    </row>
+    <row r="325" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H325" s="7"/>
+    </row>
+    <row r="326" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H326" s="7"/>
+    </row>
+    <row r="327" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H327" s="7"/>
+    </row>
+    <row r="328" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H328" s="7"/>
+    </row>
+    <row r="329" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H329" s="7"/>
+    </row>
+    <row r="330" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H330" s="7"/>
+    </row>
+    <row r="331" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H331" s="7"/>
+    </row>
+    <row r="332" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H332" s="7"/>
+    </row>
+    <row r="333" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H333" s="7"/>
+    </row>
+    <row r="334" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H334" s="7"/>
+    </row>
+    <row r="335" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H335" s="7"/>
+    </row>
+    <row r="336" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H336" s="7"/>
+    </row>
+    <row r="337" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H337" s="7"/>
+    </row>
+    <row r="338" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H338" s="7"/>
+    </row>
+    <row r="339" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H339" s="7"/>
+    </row>
+    <row r="340" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H340" s="7"/>
+    </row>
+    <row r="341" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H341" s="7"/>
+    </row>
+    <row r="342" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H342" s="7"/>
+    </row>
+    <row r="343" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H343" s="7"/>
+    </row>
+    <row r="344" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H344" s="7"/>
+    </row>
+    <row r="345" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H345" s="7"/>
+    </row>
+    <row r="346" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H346" s="7"/>
+    </row>
+    <row r="347" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H347" s="7"/>
+    </row>
+    <row r="348" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H348" s="7"/>
+    </row>
+    <row r="349" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H349" s="7"/>
+    </row>
+    <row r="350" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H350" s="7"/>
+    </row>
+    <row r="351" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H351" s="7"/>
+    </row>
+    <row r="352" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H352" s="7"/>
+    </row>
+    <row r="353" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H353" s="7"/>
+    </row>
+    <row r="354" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H354" s="7"/>
+    </row>
+    <row r="355" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H355" s="7"/>
+    </row>
+    <row r="356" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H356" s="7"/>
+    </row>
+    <row r="357" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H357" s="7"/>
+    </row>
+    <row r="358" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H358" s="7"/>
+    </row>
+    <row r="359" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H359" s="7"/>
+    </row>
+    <row r="360" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H360" s="7"/>
+    </row>
+    <row r="361" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H361" s="7"/>
+    </row>
+    <row r="362" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H362" s="7"/>
+    </row>
+    <row r="363" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H363" s="7"/>
+    </row>
+    <row r="364" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H364" s="7"/>
+    </row>
+    <row r="365" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H365" s="7"/>
+    </row>
+    <row r="366" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H366" s="7"/>
+    </row>
+    <row r="367" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H367" s="7"/>
+    </row>
+    <row r="368" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H368" s="7"/>
+    </row>
+    <row r="369" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H369" s="7"/>
+    </row>
+    <row r="370" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H370" s="7"/>
+    </row>
+    <row r="371" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H371" s="7"/>
+    </row>
+    <row r="372" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H372" s="7"/>
+    </row>
+    <row r="373" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H373" s="7"/>
+    </row>
+    <row r="374" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H374" s="7"/>
+    </row>
+    <row r="375" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H375" s="7"/>
+    </row>
+    <row r="376" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H376" s="7"/>
+    </row>
+    <row r="377" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H377" s="7"/>
+    </row>
+    <row r="378" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H378" s="7"/>
+    </row>
+    <row r="379" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H379" s="7"/>
+    </row>
+    <row r="380" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H380" s="7"/>
+    </row>
+    <row r="381" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H381" s="7"/>
+    </row>
+    <row r="382" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H382" s="7"/>
+    </row>
+    <row r="383" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H383" s="7"/>
+    </row>
+    <row r="384" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H384" s="7"/>
+    </row>
+    <row r="385" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H385" s="7"/>
+    </row>
+    <row r="386" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H386" s="7"/>
+    </row>
+    <row r="387" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H387" s="7"/>
+    </row>
+    <row r="388" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H388" s="7"/>
+    </row>
+    <row r="389" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H389" s="7"/>
+    </row>
+    <row r="390" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H390" s="7"/>
+    </row>
+    <row r="391" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H391" s="7"/>
+    </row>
+    <row r="392" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H392" s="7"/>
+    </row>
+    <row r="393" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H393" s="7"/>
+    </row>
+    <row r="394" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H394" s="7"/>
+    </row>
+    <row r="395" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H395" s="7"/>
+    </row>
+    <row r="396" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H396" s="7"/>
+    </row>
+    <row r="397" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H397" s="7"/>
+    </row>
+    <row r="398" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H398" s="7"/>
+    </row>
+    <row r="399" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H399" s="7"/>
+    </row>
+    <row r="400" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H400" s="7"/>
+    </row>
+    <row r="401" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H401" s="7"/>
+    </row>
+    <row r="402" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H402" s="7"/>
+    </row>
+    <row r="403" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H403" s="7"/>
+    </row>
+    <row r="404" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H404" s="7"/>
+    </row>
+    <row r="405" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H405" s="7"/>
+    </row>
+    <row r="406" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H406" s="7"/>
+    </row>
+    <row r="407" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H407" s="7"/>
+    </row>
+    <row r="408" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H408" s="7"/>
+    </row>
+    <row r="409" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H409" s="7"/>
+    </row>
+    <row r="410" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H410" s="7"/>
+    </row>
+    <row r="411" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H411" s="7"/>
+    </row>
+    <row r="412" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H412" s="7"/>
+    </row>
+    <row r="413" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H413" s="7"/>
+    </row>
+    <row r="414" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H414" s="7"/>
+    </row>
+    <row r="415" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H415" s="7"/>
+    </row>
+    <row r="416" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H416" s="7"/>
+    </row>
+    <row r="417" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H417" s="7"/>
+    </row>
+    <row r="418" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H418" s="7"/>
+    </row>
+    <row r="419" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H419" s="7"/>
+    </row>
+    <row r="420" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H420" s="7"/>
+    </row>
+    <row r="421" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H421" s="7"/>
+    </row>
+    <row r="422" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H422" s="7"/>
+    </row>
+    <row r="423" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H423" s="7"/>
+    </row>
+    <row r="424" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H424" s="7"/>
+    </row>
+    <row r="425" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H425" s="7"/>
+    </row>
+    <row r="426" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H426" s="7"/>
+    </row>
+    <row r="427" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H427" s="7"/>
+    </row>
+    <row r="428" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H428" s="7"/>
+    </row>
+    <row r="429" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H429" s="7"/>
+    </row>
+    <row r="430" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H430" s="7"/>
+    </row>
+    <row r="431" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H431" s="7"/>
+    </row>
+    <row r="432" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H432" s="7"/>
+    </row>
+    <row r="433" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H433" s="7"/>
+    </row>
+    <row r="434" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H434" s="7"/>
+    </row>
+    <row r="435" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H435" s="7"/>
+    </row>
+    <row r="436" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H436" s="7"/>
+    </row>
+    <row r="437" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H437" s="7"/>
+    </row>
+    <row r="438" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H438" s="7"/>
+    </row>
+    <row r="439" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H439" s="7"/>
+    </row>
+    <row r="440" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H440" s="7"/>
+    </row>
+    <row r="441" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H441" s="7"/>
+    </row>
+    <row r="442" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H442" s="7"/>
+    </row>
+    <row r="443" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H443" s="7"/>
+    </row>
+    <row r="444" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H444" s="7"/>
+    </row>
+    <row r="445" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H445" s="7"/>
+    </row>
+    <row r="446" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H446" s="7"/>
+    </row>
+    <row r="447" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H447" s="7"/>
+    </row>
+    <row r="448" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H448" s="7"/>
+    </row>
+    <row r="449" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H449" s="7"/>
+    </row>
+    <row r="450" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H450" s="7"/>
+    </row>
+    <row r="451" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H451" s="7"/>
+    </row>
+    <row r="452" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H452" s="7"/>
+    </row>
+    <row r="453" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H453" s="7"/>
+    </row>
+    <row r="454" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H454" s="7"/>
+    </row>
+    <row r="455" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H455" s="7"/>
+    </row>
+    <row r="456" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H456" s="7"/>
+    </row>
+    <row r="457" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H457" s="7"/>
+    </row>
+    <row r="458" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H458" s="7"/>
+    </row>
+    <row r="459" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H459" s="7"/>
+    </row>
+    <row r="460" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H460" s="7"/>
+    </row>
+    <row r="461" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H461" s="7"/>
+    </row>
+    <row r="462" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H462" s="7"/>
+    </row>
+    <row r="463" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H463" s="7"/>
+    </row>
+    <row r="464" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H464" s="7"/>
+    </row>
+    <row r="465" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H465" s="7"/>
+    </row>
+    <row r="466" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H466" s="7"/>
+    </row>
+    <row r="467" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H467" s="7"/>
+    </row>
+    <row r="468" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H468" s="7"/>
+    </row>
+    <row r="469" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H469" s="7"/>
+    </row>
+    <row r="470" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H470" s="7"/>
+    </row>
+    <row r="471" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H471" s="7"/>
+    </row>
+    <row r="472" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H472" s="7"/>
+    </row>
+    <row r="473" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H473" s="7"/>
+    </row>
+    <row r="474" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H474" s="7"/>
+    </row>
+    <row r="475" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H475" s="7"/>
+    </row>
+    <row r="476" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H476" s="7"/>
+    </row>
+    <row r="477" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H477" s="7"/>
+    </row>
+    <row r="478" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H478" s="7"/>
+    </row>
+    <row r="479" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H479" s="7"/>
+    </row>
+    <row r="480" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H480" s="7"/>
+    </row>
+    <row r="481" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H481" s="7"/>
+    </row>
+    <row r="482" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H482" s="7"/>
+    </row>
+    <row r="483" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H483" s="7"/>
+    </row>
+    <row r="484" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H484" s="7"/>
+    </row>
+    <row r="485" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H485" s="7"/>
+    </row>
+    <row r="486" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H486" s="7"/>
+    </row>
+    <row r="487" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H487" s="7"/>
+    </row>
+    <row r="488" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H488" s="7"/>
+    </row>
+    <row r="489" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H489" s="7"/>
+    </row>
+    <row r="490" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H490" s="7"/>
+    </row>
+    <row r="491" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H491" s="7"/>
+    </row>
+    <row r="492" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H492" s="7"/>
+    </row>
+    <row r="493" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H493" s="7"/>
+    </row>
+    <row r="494" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H494" s="7"/>
+    </row>
+    <row r="495" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H495" s="7"/>
+    </row>
+    <row r="496" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H496" s="7"/>
+    </row>
+    <row r="497" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H497" s="7"/>
+    </row>
+    <row r="498" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H498" s="7"/>
+    </row>
+    <row r="499" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H499" s="7"/>
+    </row>
+    <row r="500" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H500" s="7"/>
+    </row>
+    <row r="501" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H501" s="7"/>
+    </row>
+    <row r="502" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H502" s="7"/>
+    </row>
+    <row r="503" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H503" s="7"/>
+    </row>
+    <row r="504" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H504" s="7"/>
+    </row>
+    <row r="505" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H505" s="7"/>
+    </row>
+    <row r="506" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H506" s="7"/>
+    </row>
+    <row r="507" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H507" s="7"/>
+    </row>
+    <row r="508" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H508" s="7"/>
+    </row>
+    <row r="509" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H509" s="7"/>
+    </row>
+    <row r="510" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H510" s="7"/>
+    </row>
+    <row r="511" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H511" s="7"/>
+    </row>
+    <row r="512" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H512" s="7"/>
+    </row>
+    <row r="513" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H513" s="7"/>
+    </row>
+    <row r="514" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H514" s="7"/>
+    </row>
+    <row r="515" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H515" s="7"/>
+    </row>
+    <row r="516" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H516" s="7"/>
+    </row>
+    <row r="517" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H517" s="7"/>
+    </row>
+    <row r="518" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H518" s="7"/>
+    </row>
+    <row r="519" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H519" s="7"/>
+    </row>
+    <row r="520" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H520" s="7"/>
+    </row>
+    <row r="521" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H521" s="7"/>
+    </row>
+    <row r="522" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H522" s="7"/>
+    </row>
+    <row r="523" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H523" s="7"/>
+    </row>
+    <row r="524" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H524" s="7"/>
+    </row>
+    <row r="525" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H525" s="7"/>
+    </row>
+    <row r="526" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H526" s="7"/>
+    </row>
+    <row r="527" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H527" s="7"/>
+    </row>
+    <row r="528" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H528" s="7"/>
+    </row>
+    <row r="529" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H529" s="7"/>
+    </row>
+    <row r="530" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H530" s="7"/>
+    </row>
+    <row r="531" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H531" s="7"/>
+    </row>
+    <row r="532" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H532" s="7"/>
+    </row>
+    <row r="533" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H533" s="7"/>
+    </row>
+    <row r="534" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H534" s="7"/>
+    </row>
+    <row r="535" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H535" s="7"/>
+    </row>
+    <row r="536" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H536" s="7"/>
+    </row>
+    <row r="537" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H537" s="7"/>
+    </row>
+    <row r="538" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H538" s="7"/>
+    </row>
+    <row r="539" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H539" s="7"/>
+    </row>
+    <row r="540" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H540" s="7"/>
+    </row>
+    <row r="541" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H541" s="7"/>
+    </row>
+    <row r="542" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H542" s="7"/>
+    </row>
+    <row r="543" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H543" s="7"/>
+    </row>
+    <row r="544" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H544" s="7"/>
+    </row>
+    <row r="545" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H545" s="7"/>
+    </row>
+    <row r="546" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H546" s="7"/>
+    </row>
+    <row r="547" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H547" s="7"/>
+    </row>
+    <row r="548" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H548" s="7"/>
+    </row>
+    <row r="549" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H549" s="7"/>
+    </row>
+    <row r="550" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H550" s="7"/>
+    </row>
+    <row r="551" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H551" s="7"/>
+    </row>
+    <row r="552" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H552" s="7"/>
+    </row>
+    <row r="553" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H553" s="7"/>
+    </row>
+    <row r="554" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H554" s="7"/>
+    </row>
+    <row r="555" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H555" s="7"/>
+    </row>
+    <row r="556" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H556" s="7"/>
+    </row>
+    <row r="557" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H557" s="7"/>
+    </row>
+    <row r="558" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H558" s="7"/>
+    </row>
+    <row r="559" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H559" s="7"/>
+    </row>
+    <row r="560" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H560" s="7"/>
+    </row>
+    <row r="561" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H561" s="7"/>
+    </row>
+    <row r="562" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H562" s="7"/>
+    </row>
+    <row r="563" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H563" s="7"/>
+    </row>
+    <row r="564" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H564" s="7"/>
+    </row>
+    <row r="565" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H565" s="7"/>
+    </row>
+    <row r="566" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H566" s="7"/>
+    </row>
+    <row r="567" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H567" s="7"/>
+    </row>
+    <row r="568" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H568" s="7"/>
+    </row>
+    <row r="569" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H569" s="7"/>
+    </row>
+    <row r="570" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H570" s="7"/>
+    </row>
+    <row r="571" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H571" s="7"/>
+    </row>
+    <row r="572" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H572" s="7"/>
+    </row>
+    <row r="573" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H573" s="7"/>
+    </row>
+    <row r="574" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H574" s="7"/>
+    </row>
+    <row r="575" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H575" s="7"/>
+    </row>
+    <row r="576" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H576" s="7"/>
+    </row>
+    <row r="577" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H577" s="7"/>
+    </row>
+    <row r="578" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H578" s="7"/>
+    </row>
+    <row r="579" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H579" s="7"/>
+    </row>
+    <row r="580" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H580" s="7"/>
+    </row>
+    <row r="581" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H581" s="7"/>
+    </row>
+    <row r="582" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H582" s="7"/>
+    </row>
+    <row r="583" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H583" s="7"/>
+    </row>
+    <row r="584" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H584" s="7"/>
+    </row>
+    <row r="585" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H585" s="7"/>
+    </row>
+    <row r="586" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H586" s="7"/>
+    </row>
+    <row r="587" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H587" s="7"/>
+    </row>
+    <row r="588" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H588" s="7"/>
+    </row>
+    <row r="589" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H589" s="7"/>
+    </row>
+    <row r="590" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H590" s="7"/>
+    </row>
+    <row r="591" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H591" s="7"/>
+    </row>
+    <row r="592" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H592" s="7"/>
+    </row>
+    <row r="593" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H593" s="7"/>
+    </row>
+    <row r="594" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H594" s="7"/>
+    </row>
+    <row r="595" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H595" s="7"/>
+    </row>
+    <row r="596" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H596" s="7"/>
+    </row>
+    <row r="597" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H597" s="7"/>
+    </row>
+    <row r="598" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H598" s="7"/>
+    </row>
+    <row r="599" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H599" s="7"/>
+    </row>
+    <row r="600" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H600" s="7"/>
+    </row>
+    <row r="601" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H601" s="7"/>
+    </row>
+    <row r="602" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H602" s="7"/>
+    </row>
+    <row r="603" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H603" s="7"/>
+    </row>
+    <row r="604" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H604" s="7"/>
+    </row>
+    <row r="605" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H605" s="7"/>
+    </row>
+    <row r="606" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H606" s="7"/>
+    </row>
+    <row r="607" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H607" s="7"/>
+    </row>
+    <row r="608" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H608" s="7"/>
+    </row>
+    <row r="609" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H609" s="7"/>
+    </row>
+    <row r="610" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H610" s="7"/>
+    </row>
+    <row r="611" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H611" s="7"/>
+    </row>
+    <row r="612" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H612" s="7"/>
+    </row>
+    <row r="613" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H613" s="7"/>
+    </row>
+    <row r="614" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H614" s="7"/>
+    </row>
+    <row r="615" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H615" s="7"/>
+    </row>
+    <row r="616" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H616" s="7"/>
+    </row>
+    <row r="617" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H617" s="7"/>
+    </row>
+    <row r="618" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H618" s="7"/>
+    </row>
+    <row r="619" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H619" s="7"/>
+    </row>
+    <row r="620" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H620" s="7"/>
+    </row>
+    <row r="621" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H621" s="7"/>
+    </row>
+    <row r="622" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H622" s="7"/>
+    </row>
+    <row r="623" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H623" s="7"/>
+    </row>
+    <row r="624" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H624" s="7"/>
+    </row>
+    <row r="625" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H625" s="7"/>
+    </row>
+    <row r="626" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H626" s="7"/>
+    </row>
+    <row r="627" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H627" s="7"/>
+    </row>
+    <row r="628" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H628" s="7"/>
+    </row>
+    <row r="629" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H629" s="7"/>
+    </row>
+    <row r="630" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H630" s="7"/>
+    </row>
+    <row r="631" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H631" s="7"/>
+    </row>
+    <row r="632" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H632" s="7"/>
+    </row>
+    <row r="633" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H633" s="7"/>
+    </row>
+    <row r="634" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H634" s="7"/>
+    </row>
+    <row r="635" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H635" s="7"/>
+    </row>
+    <row r="636" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H636" s="7"/>
+    </row>
+    <row r="637" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H637" s="7"/>
+    </row>
+    <row r="638" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H638" s="7"/>
+    </row>
+    <row r="639" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H639" s="7"/>
+    </row>
+    <row r="640" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H640" s="7"/>
+    </row>
+    <row r="641" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H641" s="7"/>
+    </row>
+    <row r="642" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H642" s="7"/>
+    </row>
+    <row r="643" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H643" s="7"/>
+    </row>
+    <row r="644" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H644" s="7"/>
+    </row>
+    <row r="645" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H645" s="7"/>
+    </row>
+    <row r="646" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H646" s="7"/>
+    </row>
+    <row r="647" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H647" s="7"/>
+    </row>
+    <row r="648" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H648" s="7"/>
+    </row>
+    <row r="649" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H649" s="7"/>
+    </row>
+    <row r="650" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H650" s="7"/>
+    </row>
+    <row r="651" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H651" s="7"/>
+    </row>
+    <row r="652" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H652" s="7"/>
+    </row>
+    <row r="653" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H653" s="7"/>
+    </row>
+    <row r="654" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H654" s="7"/>
+    </row>
+    <row r="655" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H655" s="7"/>
+    </row>
+    <row r="656" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H656" s="7"/>
+    </row>
+    <row r="657" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H657" s="7"/>
+    </row>
+    <row r="658" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H658" s="7"/>
+    </row>
+    <row r="659" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H659" s="7"/>
+    </row>
+    <row r="660" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H660" s="7"/>
+    </row>
+    <row r="661" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H661" s="7"/>
+    </row>
+    <row r="662" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H662" s="7"/>
+    </row>
+    <row r="663" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H663" s="7"/>
+    </row>
+    <row r="664" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H664" s="7"/>
+    </row>
+    <row r="665" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H665" s="7"/>
+    </row>
+    <row r="666" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H666" s="7"/>
+    </row>
+    <row r="667" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H667" s="7"/>
+    </row>
+    <row r="668" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H668" s="7"/>
+    </row>
+    <row r="669" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H669" s="7"/>
+    </row>
+    <row r="670" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H670" s="7"/>
+    </row>
+    <row r="671" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H671" s="7"/>
+    </row>
+    <row r="672" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H672" s="7"/>
+    </row>
+    <row r="673" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H673" s="7"/>
+    </row>
+    <row r="674" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H674" s="7"/>
+    </row>
+    <row r="675" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H675" s="7"/>
+    </row>
+    <row r="676" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H676" s="7"/>
+    </row>
+    <row r="677" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H677" s="7"/>
+    </row>
+    <row r="678" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H678" s="7"/>
+    </row>
+    <row r="679" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H679" s="7"/>
+    </row>
+    <row r="680" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H680" s="7"/>
+    </row>
+    <row r="681" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H681" s="7"/>
+    </row>
+    <row r="682" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H682" s="7"/>
+    </row>
+    <row r="683" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H683" s="7"/>
+    </row>
+    <row r="684" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H684" s="7"/>
+    </row>
+    <row r="685" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H685" s="7"/>
+    </row>
+    <row r="686" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H686" s="7"/>
+    </row>
+    <row r="687" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H687" s="7"/>
+    </row>
+    <row r="688" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H688" s="7"/>
+    </row>
+    <row r="689" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H689" s="7"/>
+    </row>
+    <row r="690" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H690" s="7"/>
+    </row>
+    <row r="691" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H691" s="7"/>
+    </row>
+    <row r="692" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H692" s="7"/>
+    </row>
+    <row r="693" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H693" s="7"/>
+    </row>
+    <row r="694" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H694" s="7"/>
+    </row>
+    <row r="695" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H695" s="7"/>
+    </row>
+    <row r="696" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H696" s="7"/>
+    </row>
+    <row r="697" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H697" s="7"/>
+    </row>
+    <row r="698" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H698" s="7"/>
+    </row>
+    <row r="699" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H699" s="7"/>
+    </row>
+    <row r="700" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H700" s="7"/>
+    </row>
+    <row r="701" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H701" s="7"/>
+    </row>
+    <row r="702" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H702" s="7"/>
+    </row>
+    <row r="703" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H703" s="7"/>
+    </row>
+    <row r="704" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H704" s="7"/>
+    </row>
+    <row r="705" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H705" s="7"/>
+    </row>
+    <row r="706" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H706" s="7"/>
+    </row>
+    <row r="707" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H707" s="7"/>
+    </row>
+    <row r="708" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H708" s="7"/>
+    </row>
+    <row r="709" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H709" s="7"/>
+    </row>
+    <row r="710" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H710" s="7"/>
+    </row>
+    <row r="711" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H711" s="7"/>
+    </row>
+    <row r="712" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H712" s="7"/>
+    </row>
+    <row r="713" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H713" s="7"/>
+    </row>
+    <row r="714" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H714" s="7"/>
+    </row>
+    <row r="715" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H715" s="7"/>
+    </row>
+    <row r="716" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H716" s="7"/>
+    </row>
+    <row r="717" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H717" s="7"/>
+    </row>
+    <row r="718" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H718" s="7"/>
+    </row>
+    <row r="719" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H719" s="7"/>
+    </row>
+    <row r="720" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H720" s="7"/>
+    </row>
+    <row r="721" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H721" s="7"/>
+    </row>
+    <row r="722" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H722" s="7"/>
+    </row>
+    <row r="723" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H723" s="7"/>
+    </row>
+    <row r="724" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H724" s="7"/>
+    </row>
+    <row r="725" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H725" s="7"/>
+    </row>
+    <row r="726" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H726" s="7"/>
+    </row>
+    <row r="727" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H727" s="7"/>
+    </row>
+    <row r="728" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H728" s="7"/>
+    </row>
+    <row r="729" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H729" s="7"/>
+    </row>
+    <row r="730" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H730" s="7"/>
+    </row>
+    <row r="731" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H731" s="7"/>
+    </row>
+    <row r="732" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H732" s="7"/>
+    </row>
+    <row r="733" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H733" s="7"/>
+    </row>
+    <row r="734" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H734" s="7"/>
+    </row>
+    <row r="735" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H735" s="7"/>
+    </row>
+    <row r="736" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H736" s="7"/>
+    </row>
+    <row r="737" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H737" s="7"/>
+    </row>
+    <row r="738" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H738" s="7"/>
+    </row>
+    <row r="739" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H739" s="7"/>
+    </row>
+    <row r="740" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H740" s="7"/>
+    </row>
+    <row r="741" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H741" s="7"/>
+    </row>
+    <row r="742" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H742" s="7"/>
+    </row>
+    <row r="743" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H743" s="7"/>
+    </row>
+    <row r="744" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H744" s="7"/>
+    </row>
+    <row r="745" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H745" s="7"/>
+    </row>
+    <row r="746" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H746" s="7"/>
+    </row>
+    <row r="747" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H747" s="7"/>
+    </row>
+    <row r="748" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H748" s="7"/>
+    </row>
+    <row r="749" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H749" s="7"/>
+    </row>
+    <row r="750" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H750" s="7"/>
+    </row>
+    <row r="751" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H751" s="7"/>
+    </row>
+    <row r="752" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H752" s="7"/>
+    </row>
+    <row r="753" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H753" s="7"/>
+    </row>
+    <row r="754" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H754" s="7"/>
+    </row>
+    <row r="755" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H755" s="7"/>
+    </row>
+    <row r="756" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H756" s="7"/>
+    </row>
+    <row r="757" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H757" s="7"/>
+    </row>
+    <row r="758" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H758" s="7"/>
+    </row>
+    <row r="759" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H759" s="7"/>
+    </row>
+    <row r="760" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H760" s="7"/>
+    </row>
+    <row r="761" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H761" s="7"/>
+    </row>
+    <row r="762" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H762" s="7"/>
+    </row>
+    <row r="763" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H763" s="7"/>
+    </row>
+    <row r="764" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H764" s="7"/>
+    </row>
+    <row r="765" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H765" s="7"/>
+    </row>
+    <row r="766" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H766" s="7"/>
+    </row>
+    <row r="767" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H767" s="7"/>
+    </row>
+    <row r="768" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H768" s="7"/>
+    </row>
+    <row r="769" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H769" s="7"/>
+    </row>
+    <row r="770" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H770" s="7"/>
+    </row>
+    <row r="771" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H771" s="7"/>
+    </row>
+    <row r="772" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H772" s="7"/>
+    </row>
+    <row r="773" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H773" s="7"/>
+    </row>
+    <row r="774" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H774" s="7"/>
+    </row>
+    <row r="775" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H775" s="7"/>
+    </row>
+    <row r="776" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H776" s="7"/>
+    </row>
+    <row r="777" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H777" s="7"/>
+    </row>
+    <row r="778" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H778" s="7"/>
+    </row>
+    <row r="779" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H779" s="7"/>
+    </row>
+    <row r="780" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H780" s="7"/>
+    </row>
+    <row r="781" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H781" s="7"/>
+    </row>
+    <row r="782" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H782" s="7"/>
+    </row>
+    <row r="783" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H783" s="7"/>
+    </row>
+    <row r="784" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H784" s="7"/>
+    </row>
+    <row r="785" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H785" s="7"/>
+    </row>
+    <row r="786" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H786" s="7"/>
+    </row>
+    <row r="787" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H787" s="7"/>
+    </row>
+    <row r="788" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H788" s="7"/>
+    </row>
+    <row r="789" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H789" s="7"/>
+    </row>
+    <row r="790" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H790" s="7"/>
+    </row>
+    <row r="791" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H791" s="7"/>
+    </row>
+    <row r="792" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H792" s="7"/>
+    </row>
+    <row r="793" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H793" s="7"/>
+    </row>
+    <row r="794" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H794" s="7"/>
+    </row>
+    <row r="795" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H795" s="7"/>
+    </row>
+    <row r="796" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H796" s="7"/>
+    </row>
+    <row r="797" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H797" s="7"/>
+    </row>
+    <row r="798" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H798" s="7"/>
+    </row>
+    <row r="799" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H799" s="7"/>
+    </row>
+    <row r="800" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H800" s="7"/>
+    </row>
+    <row r="801" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H801" s="7"/>
+    </row>
+    <row r="802" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H802" s="7"/>
+    </row>
+    <row r="803" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H803" s="7"/>
+    </row>
+    <row r="804" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H804" s="7"/>
+    </row>
+    <row r="805" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H805" s="7"/>
+    </row>
+    <row r="806" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H806" s="7"/>
+    </row>
+    <row r="807" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H807" s="7"/>
+    </row>
+    <row r="808" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H808" s="7"/>
+    </row>
+    <row r="809" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H809" s="7"/>
+    </row>
+    <row r="810" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H810" s="7"/>
+    </row>
+    <row r="811" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H811" s="7"/>
+    </row>
+    <row r="812" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H812" s="7"/>
+    </row>
+    <row r="813" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H813" s="7"/>
+    </row>
+    <row r="814" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H814" s="7"/>
+    </row>
+    <row r="815" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H815" s="7"/>
+    </row>
+    <row r="816" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H816" s="7"/>
+    </row>
+    <row r="817" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H817" s="7"/>
+    </row>
+    <row r="818" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H818" s="7"/>
+    </row>
+    <row r="819" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H819" s="7"/>
+    </row>
+    <row r="820" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H820" s="7"/>
+    </row>
+    <row r="821" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H821" s="7"/>
+    </row>
+    <row r="822" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H822" s="7"/>
+    </row>
+    <row r="823" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H823" s="7"/>
+    </row>
+    <row r="824" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H824" s="7"/>
+    </row>
+    <row r="825" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H825" s="7"/>
+    </row>
+    <row r="826" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H826" s="7"/>
+    </row>
+    <row r="827" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H827" s="7"/>
+    </row>
+    <row r="828" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H828" s="7"/>
+    </row>
+    <row r="829" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H829" s="7"/>
+    </row>
+    <row r="830" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H830" s="7"/>
+    </row>
+    <row r="831" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H831" s="7"/>
+    </row>
+    <row r="832" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H832" s="7"/>
+    </row>
+    <row r="833" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H833" s="7"/>
+    </row>
+    <row r="834" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H834" s="7"/>
+    </row>
+    <row r="835" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H835" s="7"/>
+    </row>
+    <row r="836" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H836" s="7"/>
+    </row>
+    <row r="837" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H837" s="7"/>
+    </row>
+    <row r="838" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H838" s="7"/>
+    </row>
+    <row r="839" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H839" s="7"/>
+    </row>
+    <row r="840" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H840" s="7"/>
+    </row>
+    <row r="841" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H841" s="7"/>
+    </row>
+    <row r="842" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H842" s="7"/>
+    </row>
+    <row r="843" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H843" s="7"/>
+    </row>
+    <row r="844" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H844" s="7"/>
+    </row>
+    <row r="845" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H845" s="7"/>
+    </row>
+    <row r="846" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H846" s="7"/>
+    </row>
+    <row r="847" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H847" s="7"/>
+    </row>
+    <row r="848" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H848" s="7"/>
+    </row>
+    <row r="849" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H849" s="7"/>
+    </row>
+    <row r="850" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H850" s="7"/>
+    </row>
+    <row r="851" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H851" s="7"/>
+    </row>
+    <row r="852" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H852" s="7"/>
+    </row>
+    <row r="853" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H853" s="7"/>
+    </row>
+    <row r="854" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H854" s="7"/>
+    </row>
+    <row r="855" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H855" s="7"/>
+    </row>
+    <row r="856" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H856" s="7"/>
+    </row>
+    <row r="857" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H857" s="7"/>
+    </row>
+    <row r="858" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H858" s="7"/>
+    </row>
+    <row r="859" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H859" s="7"/>
+    </row>
+    <row r="860" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H860" s="7"/>
+    </row>
+    <row r="861" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H861" s="7"/>
+    </row>
+    <row r="862" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H862" s="7"/>
+    </row>
+    <row r="863" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H863" s="7"/>
+    </row>
+    <row r="864" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H864" s="7"/>
+    </row>
+    <row r="865" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H865" s="7"/>
+    </row>
+    <row r="866" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H866" s="7"/>
+    </row>
+    <row r="867" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H867" s="7"/>
+    </row>
+    <row r="868" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H868" s="7"/>
+    </row>
+    <row r="869" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H869" s="7"/>
+    </row>
+    <row r="870" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H870" s="7"/>
+    </row>
+    <row r="871" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H871" s="7"/>
+    </row>
+    <row r="872" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H872" s="7"/>
+    </row>
+    <row r="873" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H873" s="7"/>
+    </row>
+    <row r="874" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H874" s="7"/>
+    </row>
+    <row r="875" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H875" s="7"/>
+    </row>
+    <row r="876" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H876" s="7"/>
+    </row>
+    <row r="877" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H877" s="7"/>
+    </row>
+    <row r="878" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H878" s="7"/>
+    </row>
+    <row r="879" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H879" s="7"/>
+    </row>
+    <row r="880" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H880" s="7"/>
+    </row>
+    <row r="881" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H881" s="7"/>
+    </row>
+    <row r="882" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H882" s="7"/>
+    </row>
+    <row r="883" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H883" s="7"/>
+    </row>
+    <row r="884" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H884" s="7"/>
+    </row>
+    <row r="885" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H885" s="7"/>
+    </row>
+    <row r="886" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H886" s="7"/>
+    </row>
+    <row r="887" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H887" s="7"/>
+    </row>
+    <row r="888" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H888" s="7"/>
+    </row>
+    <row r="889" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H889" s="7"/>
+    </row>
+    <row r="890" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H890" s="7"/>
+    </row>
+    <row r="891" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H891" s="7"/>
+    </row>
+    <row r="892" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H892" s="7"/>
+    </row>
+    <row r="893" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H893" s="7"/>
+    </row>
+    <row r="894" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H894" s="7"/>
+    </row>
+    <row r="895" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H895" s="7"/>
+    </row>
+    <row r="896" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H896" s="7"/>
+    </row>
+    <row r="897" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H897" s="7"/>
+    </row>
+    <row r="898" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H898" s="7"/>
+    </row>
+    <row r="899" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H899" s="7"/>
+    </row>
+    <row r="900" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H900" s="7"/>
+    </row>
+    <row r="901" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H901" s="7"/>
+    </row>
+    <row r="902" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H902" s="7"/>
+    </row>
+    <row r="903" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H903" s="7"/>
+    </row>
+    <row r="904" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H904" s="7"/>
+    </row>
+    <row r="905" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H905" s="7"/>
+    </row>
+    <row r="906" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H906" s="7"/>
+    </row>
+    <row r="907" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H907" s="7"/>
+    </row>
+    <row r="908" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H908" s="7"/>
+    </row>
+    <row r="909" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H909" s="7"/>
+    </row>
+    <row r="910" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H910" s="7"/>
+    </row>
+    <row r="911" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H911" s="7"/>
+    </row>
+    <row r="912" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H912" s="7"/>
+    </row>
+    <row r="913" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H913" s="7"/>
+    </row>
+    <row r="914" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H914" s="7"/>
+    </row>
+    <row r="915" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H915" s="7"/>
+    </row>
+    <row r="916" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H916" s="7"/>
+    </row>
+    <row r="917" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H917" s="7"/>
+    </row>
+    <row r="918" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H918" s="7"/>
+    </row>
+    <row r="919" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H919" s="7"/>
+    </row>
+    <row r="920" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H920" s="7"/>
+    </row>
+    <row r="921" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H921" s="7"/>
+    </row>
+    <row r="922" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H922" s="7"/>
+    </row>
+    <row r="923" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H923" s="7"/>
+    </row>
+    <row r="924" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H924" s="7"/>
+    </row>
+    <row r="925" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H925" s="7"/>
+    </row>
+    <row r="926" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H926" s="7"/>
+    </row>
+    <row r="927" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H927" s="7"/>
+    </row>
+    <row r="928" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H928" s="7"/>
+    </row>
+    <row r="929" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H929" s="7"/>
+    </row>
+    <row r="930" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H930" s="7"/>
+    </row>
+    <row r="931" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H931" s="7"/>
+    </row>
+    <row r="932" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H932" s="7"/>
+    </row>
+    <row r="933" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H933" s="7"/>
+    </row>
+    <row r="934" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H934" s="7"/>
+    </row>
+    <row r="935" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H935" s="7"/>
+    </row>
+    <row r="936" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H936" s="7"/>
+    </row>
+    <row r="937" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H937" s="7"/>
+    </row>
+    <row r="938" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H938" s="7"/>
+    </row>
+    <row r="939" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H939" s="7"/>
+    </row>
+    <row r="940" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H940" s="7"/>
+    </row>
+    <row r="941" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H941" s="7"/>
+    </row>
+    <row r="942" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H942" s="7"/>
+    </row>
+    <row r="943" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H943" s="7"/>
+    </row>
+    <row r="944" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H944" s="7"/>
+    </row>
+    <row r="945" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H945" s="7"/>
+    </row>
+    <row r="946" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H946" s="7"/>
+    </row>
+    <row r="947" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H947" s="7"/>
+    </row>
+    <row r="948" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H948" s="7"/>
+    </row>
+    <row r="949" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H949" s="7"/>
+    </row>
+    <row r="950" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H950" s="7"/>
+    </row>
+    <row r="951" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H951" s="7"/>
+    </row>
+    <row r="952" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H952" s="7"/>
+    </row>
+    <row r="953" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H953" s="7"/>
+    </row>
+    <row r="954" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H954" s="7"/>
+    </row>
+    <row r="955" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H955" s="7"/>
+    </row>
+    <row r="956" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H956" s="7"/>
+    </row>
+    <row r="957" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H957" s="7"/>
+    </row>
+    <row r="958" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H958" s="7"/>
+    </row>
+    <row r="959" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H959" s="7"/>
+    </row>
+    <row r="960" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H960" s="7"/>
+    </row>
+    <row r="961" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H961" s="7"/>
+    </row>
+    <row r="962" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H962" s="7"/>
+    </row>
+    <row r="963" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H963" s="7"/>
+    </row>
+    <row r="964" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H964" s="7"/>
+    </row>
+    <row r="965" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H965" s="7"/>
+    </row>
+    <row r="966" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H966" s="7"/>
+    </row>
+    <row r="967" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H967" s="7"/>
+    </row>
+    <row r="968" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H968" s="7"/>
+    </row>
+    <row r="969" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H969" s="7"/>
+    </row>
+    <row r="970" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H970" s="7"/>
+    </row>
+    <row r="971" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H971" s="7"/>
+    </row>
+    <row r="972" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H972" s="7"/>
+    </row>
+    <row r="973" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H973" s="7"/>
+    </row>
+    <row r="974" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H974" s="7"/>
+    </row>
+    <row r="975" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H975" s="7"/>
+    </row>
+    <row r="976" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H976" s="7"/>
+    </row>
+    <row r="977" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H977" s="7"/>
+    </row>
+    <row r="978" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H978" s="7"/>
+    </row>
+    <row r="979" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H979" s="7"/>
+    </row>
+    <row r="980" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H980" s="7"/>
+    </row>
+    <row r="981" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H981" s="7"/>
+    </row>
+    <row r="982" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H982" s="7"/>
+    </row>
+    <row r="983" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H983" s="7"/>
+    </row>
+    <row r="984" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H984" s="7"/>
+    </row>
+    <row r="985" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H985" s="7"/>
+    </row>
+    <row r="986" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H986" s="7"/>
+    </row>
+    <row r="987" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H987" s="7"/>
+    </row>
+    <row r="988" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H988" s="7"/>
+    </row>
+    <row r="989" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H989" s="7"/>
+    </row>
+    <row r="990" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H990" s="7"/>
+    </row>
+    <row r="991" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H991" s="7"/>
+    </row>
+    <row r="992" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H992" s="7"/>
+    </row>
+    <row r="993" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H993" s="7"/>
+    </row>
+    <row r="994" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H994" s="7"/>
+    </row>
+    <row r="995" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H995" s="7"/>
+    </row>
+    <row r="996" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H996" s="7"/>
+    </row>
+    <row r="997" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H997" s="7"/>
+    </row>
+    <row r="998" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H998" s="7"/>
+    </row>
+    <row r="999" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H999" s="7"/>
+    </row>
+    <row r="1000" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1000" s="7"/>
+    </row>
+    <row r="1001" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1001" s="7"/>
+    </row>
+    <row r="1002" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1002" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:J104"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B2" s="1">
-        <v>54</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1837</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G104" si="0">E2*F2</f>
-        <v>993.81700000000012</v>
-      </c>
-      <c r="H2" s="2">
-        <f t="shared" ref="H2:H104" si="1">F2-G2</f>
-        <v>843.18299999999988</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" ref="I2:I104" si="2">G2/H2</f>
-        <v>1.1786492374727673</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B3" s="1">
-        <v>64</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.57399999999999995</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3151</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="0"/>
-        <v>1742.5030000000002</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" si="1"/>
-        <v>1408.4969999999998</v>
-      </c>
-      <c r="I3" s="3">
-        <f t="shared" si="2"/>
-        <v>1.237136465324385</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B4" s="1">
-        <v>62</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1813</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>1098.6779999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="1"/>
-        <v>714.32200000000012</v>
-      </c>
-      <c r="I4" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5380710659898473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B5" s="1">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1583</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="0"/>
-        <v>888.0630000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="1"/>
-        <v>694.9369999999999</v>
-      </c>
-      <c r="I5" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2779043280182236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B6" s="1">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1745</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="0"/>
-        <v>502.55999999999995</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="1"/>
-        <v>1242.44</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.40449438202247184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B7" s="1">
-        <v>66</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2913</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="0"/>
-        <v>1616.7150000000001</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>1296.2849999999999</v>
-      </c>
-      <c r="I7" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2471910112359552</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2642</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
-        <v>1286.654</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="1"/>
-        <v>1355.346</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.949317738791423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B9" s="1">
-        <v>71</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.497</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1920</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="0"/>
-        <v>954.24</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="1"/>
-        <v>965.76</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="2"/>
-        <v>0.98807157057654083</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B10" s="1">
-        <v>63</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2382</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>1400.616</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="1"/>
-        <v>981.38400000000001</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4271844660194175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B11" s="1">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1669</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="0"/>
-        <v>934.6400000000001</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="1"/>
-        <v>734.3599999999999</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2727272727272729</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B12" s="1">
-        <v>79</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.57299999999999995</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.51200000000000001</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2293</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>1174.0160000000001</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="1"/>
-        <v>1118.9839999999999</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0491803278688525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B13" s="1">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1650</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="0"/>
-        <v>970.19999999999993</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="1"/>
-        <v>679.80000000000007</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4271844660194173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B14" s="1">
-        <v>61</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1555</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="0"/>
-        <v>903.45499999999993</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="1"/>
-        <v>651.54500000000007</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3866348448687349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B15" s="1">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.628</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2407</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>1439.386</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="1"/>
-        <v>967.61400000000003</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4875621890547264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1886</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="0"/>
-        <v>1001.466</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="1"/>
-        <v>884.53399999999999</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1321961620469083</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B17" s="1">
-        <v>65</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.61</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="F17" s="1">
-        <v>863</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="0"/>
-        <v>452.21200000000005</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="1"/>
-        <v>410.78799999999995</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1008403361344541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B18" s="1">
-        <v>69</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.61799999999999999</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2328</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="0"/>
-        <v>1312.992</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="1"/>
-        <v>1015.008</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2935779816513762</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2457</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="0"/>
-        <v>1022.112</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="1"/>
-        <v>1434.8879999999999</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.71232876712328774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B20" s="1">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1971</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="0"/>
-        <v>1135.2959999999998</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="1"/>
-        <v>835.70400000000018</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3584905660377353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B21" s="1">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1981</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="0"/>
-        <v>845.88699999999994</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>1135.1130000000001</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="2"/>
-        <v>0.74520069808027911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.624</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1480</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="0"/>
-        <v>856.92</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>623.08000000000004</v>
-      </c>
-      <c r="I22" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3752969121140142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B23" s="1">
-        <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="F23" s="1">
-        <v>695</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="0"/>
-        <v>375.995</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>319.005</v>
-      </c>
-      <c r="I23" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1786492374727668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B24" s="1">
-        <v>76</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.629</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1712</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="0"/>
-        <v>1076.848</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>635.15200000000004</v>
-      </c>
-      <c r="I24" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6954177897574123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B25" s="1">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1587</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="0"/>
-        <v>766.52099999999996</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>820.47900000000004</v>
-      </c>
-      <c r="I25" s="3">
-        <f t="shared" si="2"/>
-        <v>0.93423597678916814</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B26" s="1">
-        <v>59</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2752</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="0"/>
-        <v>1535.6160000000002</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>1216.3839999999998</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2624434389140275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B27" s="1">
-        <v>57</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2568</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="0"/>
-        <v>1584.4559999999999</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="1"/>
-        <v>983.5440000000001</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="2"/>
-        <v>1.610966057441253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B28" s="1">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.71399999999999997</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1720</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="0"/>
-        <v>961.48000000000013</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="1"/>
-        <v>758.51999999999987</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2675736961451252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B29" s="1">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1549</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="0"/>
-        <v>627.34500000000003</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>921.65499999999997</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="2"/>
-        <v>0.68067226890756305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B30" s="1">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2483</v>
-      </c>
-      <c r="G30" s="2">
-        <f t="shared" si="0"/>
-        <v>993.2</v>
-      </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>1489.8</v>
-      </c>
-      <c r="I30" s="3">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666674</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B31" s="1">
-        <v>21</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2476</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="0"/>
-        <v>1166.1959999999999</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="1"/>
-        <v>1309.8040000000001</v>
-      </c>
-      <c r="I31" s="3">
-        <f t="shared" si="2"/>
-        <v>0.89035916824196581</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B32" s="1">
-        <v>87</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1826</v>
-      </c>
-      <c r="G32" s="2">
-        <f t="shared" si="0"/>
-        <v>942.21600000000001</v>
-      </c>
-      <c r="H32" s="2">
-        <f t="shared" si="1"/>
-        <v>883.78399999999999</v>
-      </c>
-      <c r="I32" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0661157024793388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B33" s="1">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.64</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1084</v>
-      </c>
-      <c r="G33" s="2">
-        <f t="shared" si="0"/>
-        <v>625.46799999999996</v>
-      </c>
-      <c r="H33" s="2">
-        <f t="shared" si="1"/>
-        <v>458.53200000000004</v>
-      </c>
-      <c r="I33" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3640661938534278</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B34" s="1">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1140</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="0"/>
-        <v>617.88</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
-        <v>522.12</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1834061135371179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B35" s="1">
-        <v>73</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.499</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2111</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" si="0"/>
-        <v>1053.3889999999999</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>1057.6110000000001</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="2"/>
-        <v>0.99600798403193591</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B36" s="1">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2121</v>
-      </c>
-      <c r="G36" s="2">
-        <f t="shared" si="0"/>
-        <v>1138.9770000000001</v>
-      </c>
-      <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>982.02299999999991</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1598272138228944</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B37" s="1">
-        <v>51</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2451</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="0"/>
-        <v>1196.088</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="1"/>
-        <v>1254.912</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="2"/>
-        <v>0.953125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.502</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2177</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="0"/>
-        <v>1092.854</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="1"/>
-        <v>1084.146</v>
-      </c>
-      <c r="I38" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0080321285140563</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B39" s="1">
-        <v>58</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.52</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2440</v>
-      </c>
-      <c r="G39" s="2">
-        <f t="shared" si="0"/>
-        <v>1268.8</v>
-      </c>
-      <c r="H39" s="2">
-        <f t="shared" si="1"/>
-        <v>1171.2</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0833333333333333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.61199999999999999</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="F40" s="1">
-        <v>3084</v>
-      </c>
-      <c r="G40" s="2">
-        <f t="shared" si="0"/>
-        <v>1717.7880000000002</v>
-      </c>
-      <c r="H40" s="2">
-        <f t="shared" si="1"/>
-        <v>1366.2119999999998</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2573363431151245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B41" s="1">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1672</v>
-      </c>
-      <c r="G41" s="2">
-        <f t="shared" si="0"/>
-        <v>712.27199999999993</v>
-      </c>
-      <c r="H41" s="2">
-        <f t="shared" si="1"/>
-        <v>959.72800000000007</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="2"/>
-        <v>0.7421602787456445</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B42" s="1">
-        <v>25</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.79400000000000004</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2428</v>
-      </c>
-      <c r="G42" s="2">
-        <f t="shared" si="0"/>
-        <v>1235.8520000000001</v>
-      </c>
-      <c r="H42" s="2">
-        <f t="shared" si="1"/>
-        <v>1192.1479999999999</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0366598778004075</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B43" s="1">
-        <v>46</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2766</v>
-      </c>
-      <c r="G43" s="2">
-        <f t="shared" si="0"/>
-        <v>1524.066</v>
-      </c>
-      <c r="H43" s="2">
-        <f t="shared" si="1"/>
-        <v>1241.934</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2271714922048997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.61499999999999999</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.435</v>
-      </c>
-      <c r="F44" s="1">
-        <v>3245</v>
-      </c>
-      <c r="G44" s="2">
-        <f t="shared" si="0"/>
-        <v>1411.575</v>
-      </c>
-      <c r="H44" s="2">
-        <f t="shared" si="1"/>
-        <v>1833.425</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="2"/>
-        <v>0.76991150442477885</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B45" s="1">
-        <v>49</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.57099999999999995</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2392</v>
-      </c>
-      <c r="G45" s="2">
-        <f t="shared" si="0"/>
-        <v>1365.8319999999999</v>
-      </c>
-      <c r="H45" s="2">
-        <f t="shared" si="1"/>
-        <v>1026.1680000000001</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="2"/>
-        <v>1.3310023310023307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B46" s="1">
-        <v>84</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.624</v>
-      </c>
-      <c r="F46" s="1">
-        <v>3115</v>
-      </c>
-      <c r="G46" s="2">
-        <f t="shared" si="0"/>
-        <v>1943.76</v>
-      </c>
-      <c r="H46" s="2">
-        <f t="shared" si="1"/>
-        <v>1171.24</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6595744680851063</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B47" s="1">
-        <v>19</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.504</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="F47" s="1">
-        <v>1967</v>
-      </c>
-      <c r="G47" s="2">
-        <f t="shared" si="0"/>
-        <v>1024.807</v>
-      </c>
-      <c r="H47" s="2">
-        <f t="shared" si="1"/>
-        <v>942.19299999999998</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0876826722338204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B48" s="1">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1860</v>
-      </c>
-      <c r="G48" s="2">
-        <f t="shared" si="0"/>
-        <v>980.22</v>
-      </c>
-      <c r="H48" s="2">
-        <f t="shared" si="1"/>
-        <v>879.78</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1141649048625792</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B49" s="1">
-        <v>41</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2135</v>
-      </c>
-      <c r="G49" s="2">
-        <f t="shared" si="0"/>
-        <v>747.25</v>
-      </c>
-      <c r="H49" s="2">
-        <f t="shared" si="1"/>
-        <v>1387.75</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" si="2"/>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B50" s="1">
-        <v>70</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.54100000000000004</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2682</v>
-      </c>
-      <c r="G50" s="2">
-        <f t="shared" si="0"/>
-        <v>1450.962</v>
-      </c>
-      <c r="H50" s="2">
-        <f t="shared" si="1"/>
-        <v>1231.038</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1786492374727668</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B51" s="1">
-        <v>9</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.58499999999999996</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.437</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2982</v>
-      </c>
-      <c r="G51" s="2">
-        <f t="shared" si="0"/>
-        <v>1303.134</v>
-      </c>
-      <c r="H51" s="2">
-        <f t="shared" si="1"/>
-        <v>1678.866</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="2"/>
-        <v>0.77619893428063946</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B52" s="1">
-        <v>40</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0.432</v>
-      </c>
-      <c r="E52" s="1">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F52" s="1">
-        <v>892</v>
-      </c>
-      <c r="G52" s="2">
-        <f t="shared" si="0"/>
-        <v>249.76000000000002</v>
-      </c>
-      <c r="H52" s="2">
-        <f t="shared" si="1"/>
-        <v>642.24</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="2"/>
-        <v>0.3888888888888889</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B53" s="1">
-        <v>37</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.58399999999999996</v>
-      </c>
-      <c r="E53" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F53" s="1">
-        <v>1107</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="0"/>
-        <v>619.92000000000007</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="1"/>
-        <v>487.07999999999993</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2727272727272732</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B54" s="1">
-        <v>83</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="F54" s="1">
-        <v>1050</v>
-      </c>
-      <c r="G54" s="2">
-        <f t="shared" si="0"/>
-        <v>742.34999999999991</v>
-      </c>
-      <c r="H54" s="2">
-        <f t="shared" si="1"/>
-        <v>307.65000000000009</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="2"/>
-        <v>2.4129692832764493</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
-        <v>44754</v>
-      </c>
-      <c r="B55" s="1">
-        <v>72</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2453</v>
-      </c>
-      <c r="G55" s="2">
-        <f t="shared" si="0"/>
-        <v>1258.3890000000001</v>
-      </c>
-      <c r="H55" s="2">
-        <f t="shared" si="1"/>
-        <v>1194.6109999999999</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0533880903490762</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B56" s="1">
-        <v>54</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.501</v>
-      </c>
-      <c r="F56" s="1">
-        <v>1399</v>
-      </c>
-      <c r="G56" s="2">
-        <f t="shared" si="0"/>
-        <v>700.899</v>
-      </c>
-      <c r="H56" s="2">
-        <f t="shared" si="1"/>
-        <v>698.101</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0040080160320641</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B57" s="1">
-        <v>80</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="E57" s="1">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="F57" s="1">
-        <v>1262</v>
-      </c>
-      <c r="G57" s="2">
-        <f t="shared" si="0"/>
-        <v>608.28399999999999</v>
-      </c>
-      <c r="H57" s="2">
-        <f t="shared" si="1"/>
-        <v>653.71600000000001</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="2"/>
-        <v>0.93050193050193053</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B58" s="1">
-        <v>52</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="E58" s="1">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="F58" s="1">
-        <v>877</v>
-      </c>
-      <c r="G58" s="2">
-        <f t="shared" si="0"/>
-        <v>430.60699999999997</v>
-      </c>
-      <c r="H58" s="2">
-        <f t="shared" si="1"/>
-        <v>446.39300000000003</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="2"/>
-        <v>0.96463654223968553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B59" s="1">
-        <v>62</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="E59" s="1">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="F59" s="1">
-        <v>2415</v>
-      </c>
-      <c r="G59" s="2">
-        <f t="shared" si="0"/>
-        <v>1318.5900000000001</v>
-      </c>
-      <c r="H59" s="2">
-        <f t="shared" si="1"/>
-        <v>1096.4099999999999</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2026431718061676</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B60" s="1">
-        <v>64</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0.623</v>
-      </c>
-      <c r="E60" s="1">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2815</v>
-      </c>
-      <c r="G60" s="2">
-        <f t="shared" si="0"/>
-        <v>1666.48</v>
-      </c>
-      <c r="H60" s="2">
-        <f t="shared" si="1"/>
-        <v>1148.52</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4509803921568627</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="1">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="E61" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F61" s="1">
-        <v>1859</v>
-      </c>
-      <c r="G61" s="2">
-        <f t="shared" si="0"/>
-        <v>1022.45</v>
-      </c>
-      <c r="H61" s="2">
-        <f t="shared" si="1"/>
-        <v>836.55</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2222222222222223</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B62" s="1">
-        <v>66</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.624</v>
-      </c>
-      <c r="E62" s="1">
-        <v>0.502</v>
-      </c>
-      <c r="F62" s="1">
-        <v>2137</v>
-      </c>
-      <c r="G62" s="2">
-        <f t="shared" si="0"/>
-        <v>1072.7740000000001</v>
-      </c>
-      <c r="H62" s="2">
-        <f t="shared" si="1"/>
-        <v>1064.2259999999999</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0080321285140565</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.52400000000000002</v>
-      </c>
-      <c r="E63" s="1">
-        <v>0.504</v>
-      </c>
-      <c r="F63" s="1">
-        <v>2600</v>
-      </c>
-      <c r="G63" s="2">
-        <f t="shared" si="0"/>
-        <v>1310.4000000000001</v>
-      </c>
-      <c r="H63" s="2">
-        <f t="shared" si="1"/>
-        <v>1289.5999999999999</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0161290322580647</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B64" s="1">
-        <v>68</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="E64" s="1">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="F64" s="1">
-        <v>1132</v>
-      </c>
-      <c r="G64" s="2">
-        <f t="shared" si="0"/>
-        <v>553.548</v>
-      </c>
-      <c r="H64" s="2">
-        <f t="shared" si="1"/>
-        <v>578.452</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="2"/>
-        <v>0.95694716242661448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B65" s="1">
-        <v>82</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.66900000000000004</v>
-      </c>
-      <c r="E65" s="1">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="F65" s="1">
-        <v>1523</v>
-      </c>
-      <c r="G65" s="2">
-        <f t="shared" si="0"/>
-        <v>828.51200000000006</v>
-      </c>
-      <c r="H65" s="2">
-        <f t="shared" si="1"/>
-        <v>694.48799999999994</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="2"/>
-        <v>1.192982456140351</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B66" s="1">
-        <v>65</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="1">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="E66" s="1">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F66" s="1">
-        <v>1460</v>
-      </c>
-      <c r="G66" s="2">
-        <f t="shared" si="0"/>
-        <v>766.5</v>
-      </c>
-      <c r="H66" s="2">
-        <f t="shared" si="1"/>
-        <v>693.5</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1052631578947369</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B67" s="1">
-        <v>33</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="1">
-        <v>0.627</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0.54400000000000004</v>
-      </c>
-      <c r="F67" s="1">
-        <v>2650</v>
-      </c>
-      <c r="G67" s="2">
-        <f t="shared" si="0"/>
-        <v>1441.6000000000001</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" si="1"/>
-        <v>1208.3999999999999</v>
-      </c>
-      <c r="I67" s="3">
-        <f t="shared" si="2"/>
-        <v>1.192982456140351</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B68" s="1">
-        <v>69</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1392</v>
-      </c>
-      <c r="G68" s="2">
-        <f t="shared" si="0"/>
-        <v>591.6</v>
-      </c>
-      <c r="H68" s="2">
-        <f t="shared" si="1"/>
-        <v>800.4</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="2"/>
-        <v>0.73913043478260876</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B69" s="1">
-        <v>70</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0.624</v>
-      </c>
-      <c r="F69" s="1">
-        <v>2516</v>
-      </c>
-      <c r="G69" s="2">
-        <f t="shared" si="0"/>
-        <v>1569.9839999999999</v>
-      </c>
-      <c r="H69" s="2">
-        <f t="shared" si="1"/>
-        <v>946.01600000000008</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6595744680851061</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B70" s="1">
-        <v>61</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2515</v>
-      </c>
-      <c r="G70" s="2">
-        <f t="shared" si="0"/>
-        <v>1478.82</v>
-      </c>
-      <c r="H70" s="2">
-        <f t="shared" si="1"/>
-        <v>1036.18</v>
-      </c>
-      <c r="I70" s="3">
-        <f t="shared" si="2"/>
-        <v>1.4271844660194173</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B71" s="1">
-        <v>53</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="1">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="E71" s="1">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1867</v>
-      </c>
-      <c r="G71" s="2">
-        <f t="shared" si="0"/>
-        <v>886.82499999999993</v>
-      </c>
-      <c r="H71" s="2">
-        <f t="shared" si="1"/>
-        <v>980.17500000000007</v>
-      </c>
-      <c r="I71" s="3">
-        <f t="shared" si="2"/>
-        <v>0.90476190476190466</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B72" s="1">
-        <v>14</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="1">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="E72" s="1">
-        <v>0.47</v>
-      </c>
-      <c r="F72" s="1">
-        <v>2541</v>
-      </c>
-      <c r="G72" s="2">
-        <f t="shared" si="0"/>
-        <v>1194.27</v>
-      </c>
-      <c r="H72" s="2">
-        <f t="shared" si="1"/>
-        <v>1346.73</v>
-      </c>
-      <c r="I72" s="3">
-        <f t="shared" si="2"/>
-        <v>0.8867924528301887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B73" s="1">
-        <v>8</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="1">
-        <v>0.69499999999999995</v>
-      </c>
-      <c r="E73" s="1">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="F73" s="1">
-        <v>1763</v>
-      </c>
-      <c r="G73" s="2">
-        <f t="shared" si="0"/>
-        <v>925.57500000000005</v>
-      </c>
-      <c r="H73" s="2">
-        <f t="shared" si="1"/>
-        <v>837.42499999999995</v>
-      </c>
-      <c r="I73" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1052631578947369</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B74" s="1">
-        <v>57</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="1">
-        <v>0.59</v>
-      </c>
-      <c r="E74" s="1">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F74" s="1">
-        <v>2441</v>
-      </c>
-      <c r="G74" s="2">
-        <f t="shared" si="0"/>
-        <v>1188.7670000000001</v>
-      </c>
-      <c r="H74" s="2">
-        <f t="shared" si="1"/>
-        <v>1252.2329999999999</v>
-      </c>
-      <c r="I74" s="3">
-        <f t="shared" si="2"/>
-        <v>0.94931773879142312</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B75" s="1">
-        <v>13</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="1">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1159</v>
-      </c>
-      <c r="G75" s="2">
-        <f t="shared" si="0"/>
-        <v>343.06399999999996</v>
-      </c>
-      <c r="H75" s="2">
-        <f t="shared" si="1"/>
-        <v>815.93600000000004</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="2"/>
-        <v>0.42045454545454541</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B76" s="1">
-        <v>18</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D76" s="1">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1391</v>
-      </c>
-      <c r="G76" s="2">
-        <f t="shared" si="0"/>
-        <v>645.42399999999998</v>
-      </c>
-      <c r="H76" s="2">
-        <f t="shared" si="1"/>
-        <v>745.57600000000002</v>
-      </c>
-      <c r="I76" s="3">
-        <f t="shared" si="2"/>
-        <v>0.86567164179104472</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B77" s="1">
-        <v>25</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="1">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="F77" s="1">
-        <v>2843</v>
-      </c>
-      <c r="G77" s="2">
-        <f t="shared" si="0"/>
-        <v>1168.473</v>
-      </c>
-      <c r="H77" s="2">
-        <f t="shared" si="1"/>
-        <v>1674.527</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" si="2"/>
-        <v>0.69779286926994899</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B78" s="1">
-        <v>45</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="1">
-        <v>0.436</v>
-      </c>
-      <c r="E78" s="1">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1809</v>
-      </c>
-      <c r="G78" s="2">
-        <f t="shared" si="0"/>
-        <v>636.76799999999992</v>
-      </c>
-      <c r="H78" s="2">
-        <f t="shared" si="1"/>
-        <v>1172.232</v>
-      </c>
-      <c r="I78" s="3">
-        <f t="shared" si="2"/>
-        <v>0.54320987654320985</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B79" s="1">
-        <v>46</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D79" s="1">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0.441</v>
-      </c>
-      <c r="F79" s="1">
-        <v>2231</v>
-      </c>
-      <c r="G79" s="2">
-        <f t="shared" si="0"/>
-        <v>983.87099999999998</v>
-      </c>
-      <c r="H79" s="2">
-        <f t="shared" si="1"/>
-        <v>1247.1289999999999</v>
-      </c>
-      <c r="I79" s="3">
-        <f t="shared" si="2"/>
-        <v>0.78890876565295176</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B80" s="1">
-        <v>74</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="1">
-        <v>0.67100000000000004</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="F80" s="1">
-        <v>1762</v>
-      </c>
-      <c r="G80" s="2">
-        <f t="shared" si="0"/>
-        <v>815.80600000000004</v>
-      </c>
-      <c r="H80" s="2">
-        <f t="shared" si="1"/>
-        <v>946.19399999999996</v>
-      </c>
-      <c r="I80" s="3">
-        <f t="shared" si="2"/>
-        <v>0.86219739292364994</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B81" s="1">
-        <v>31</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0.39600000000000002</v>
-      </c>
-      <c r="F81" s="1">
-        <v>2014</v>
-      </c>
-      <c r="G81" s="2">
-        <f t="shared" si="0"/>
-        <v>797.54399999999998</v>
-      </c>
-      <c r="H81" s="2">
-        <f t="shared" si="1"/>
-        <v>1216.4560000000001</v>
-      </c>
-      <c r="I81" s="3">
-        <f t="shared" si="2"/>
-        <v>0.65562913907284759</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B82" s="1">
-        <v>87</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="1">
-        <v>0.622</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="F82" s="1">
-        <v>1303</v>
-      </c>
-      <c r="G82" s="2">
-        <f t="shared" si="0"/>
-        <v>556.38099999999997</v>
-      </c>
-      <c r="H82" s="2">
-        <f t="shared" si="1"/>
-        <v>746.61900000000003</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" si="2"/>
-        <v>0.74520069808027911</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B83" s="1">
-        <v>21</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="1">
-        <v>0.59099999999999997</v>
-      </c>
-      <c r="E83" s="1">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="F83" s="1">
-        <v>2443</v>
-      </c>
-      <c r="G83" s="2">
-        <f t="shared" si="0"/>
-        <v>1253.259</v>
-      </c>
-      <c r="H83" s="2">
-        <f t="shared" si="1"/>
-        <v>1189.741</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="2"/>
-        <v>1.053388090349076</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B84" s="1">
-        <v>11</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="F84" s="1">
-        <v>760</v>
-      </c>
-      <c r="G84" s="2">
-        <f t="shared" si="0"/>
-        <v>363.28</v>
-      </c>
-      <c r="H84" s="2">
-        <f t="shared" si="1"/>
-        <v>396.72</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" si="2"/>
-        <v>0.91570881226053624</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B85" s="1">
-        <v>29</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="F85" s="1">
-        <v>2488</v>
-      </c>
-      <c r="G85" s="2">
-        <f t="shared" si="0"/>
-        <v>1122.088</v>
-      </c>
-      <c r="H85" s="2">
-        <f t="shared" si="1"/>
-        <v>1365.912</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" si="2"/>
-        <v>0.82149362477231325</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B86" s="1">
-        <v>88</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D86" s="1">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1552</v>
-      </c>
-      <c r="G86" s="2">
-        <f t="shared" si="0"/>
-        <v>644.07999999999993</v>
-      </c>
-      <c r="H86" s="2">
-        <f t="shared" si="1"/>
-        <v>907.92000000000007</v>
-      </c>
-      <c r="I86" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70940170940170921</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B87" s="1">
-        <v>89</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D87" s="1">
-        <v>0.747</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="F87" s="1">
-        <v>2885</v>
-      </c>
-      <c r="G87" s="2">
-        <f t="shared" si="0"/>
-        <v>1555.0150000000001</v>
-      </c>
-      <c r="H87" s="2">
-        <f t="shared" si="1"/>
-        <v>1329.9849999999999</v>
-      </c>
-      <c r="I87" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1691973969631237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B88" s="1">
-        <v>72</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D88" s="1">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="F88" s="1">
-        <v>1858</v>
-      </c>
-      <c r="G88" s="2">
-        <f t="shared" si="0"/>
-        <v>863.97</v>
-      </c>
-      <c r="H88" s="2">
-        <f t="shared" si="1"/>
-        <v>994.03</v>
-      </c>
-      <c r="I88" s="3">
-        <f t="shared" si="2"/>
-        <v>0.86915887850467299</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B89" s="1">
-        <v>40</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" s="1">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="E89" s="1">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="F89" s="1">
-        <v>1948</v>
-      </c>
-      <c r="G89" s="2">
-        <f t="shared" si="0"/>
-        <v>786.99200000000008</v>
-      </c>
-      <c r="H89" s="2">
-        <f t="shared" si="1"/>
-        <v>1161.0079999999998</v>
-      </c>
-      <c r="I89" s="3">
-        <f t="shared" si="2"/>
-        <v>0.67785234899328872</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B90" s="1">
-        <v>39</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D90" s="1">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="F90" s="1">
-        <v>2180</v>
-      </c>
-      <c r="G90" s="2">
-        <f t="shared" si="0"/>
-        <v>765.18</v>
-      </c>
-      <c r="H90" s="2">
-        <f t="shared" si="1"/>
-        <v>1414.8200000000002</v>
-      </c>
-      <c r="I90" s="3">
-        <f t="shared" si="2"/>
-        <v>0.54083204930662543</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B91" s="1">
-        <v>41</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="1">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E91" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1794</v>
-      </c>
-      <c r="G91" s="2">
-        <f t="shared" si="0"/>
-        <v>861.12</v>
-      </c>
-      <c r="H91" s="2">
-        <f t="shared" si="1"/>
-        <v>932.88</v>
-      </c>
-      <c r="I91" s="3">
-        <f t="shared" si="2"/>
-        <v>0.92307692307692313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B92" s="1">
-        <v>70</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="1">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="E92" s="1">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="F92" s="1">
-        <v>1344</v>
-      </c>
-      <c r="G92" s="2">
-        <f t="shared" si="0"/>
-        <v>659.904</v>
-      </c>
-      <c r="H92" s="2">
-        <f t="shared" si="1"/>
-        <v>684.096</v>
-      </c>
-      <c r="I92" s="3">
-        <f t="shared" si="2"/>
-        <v>0.96463654223968565</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D93" s="1">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="E93" s="1">
-        <v>0.33</v>
-      </c>
-      <c r="F93" s="1">
-        <v>2079</v>
-      </c>
-      <c r="G93" s="2">
-        <f t="shared" si="0"/>
-        <v>686.07</v>
-      </c>
-      <c r="H93" s="2">
-        <f t="shared" si="1"/>
-        <v>1392.9299999999998</v>
-      </c>
-      <c r="I93" s="3">
-        <f t="shared" si="2"/>
-        <v>0.49253731343283591</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B94" s="1">
-        <v>49</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0.755</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="F94" s="1">
-        <v>1895</v>
-      </c>
-      <c r="G94" s="2">
-        <f t="shared" si="0"/>
-        <v>928.55</v>
-      </c>
-      <c r="H94" s="2">
-        <f t="shared" si="1"/>
-        <v>966.45</v>
-      </c>
-      <c r="I94" s="3">
-        <f t="shared" si="2"/>
-        <v>0.96078431372549011</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B95" s="1">
-        <v>1</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" s="1">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="E95" s="1">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1826</v>
-      </c>
-      <c r="G95" s="2">
-        <f t="shared" si="0"/>
-        <v>925.78200000000004</v>
-      </c>
-      <c r="H95" s="2">
-        <f t="shared" si="1"/>
-        <v>900.21799999999996</v>
-      </c>
-      <c r="I95" s="3">
-        <f t="shared" si="2"/>
-        <v>1.028397565922921</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B96" s="1">
-        <v>3</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E96" s="1">
-        <v>0.51700000000000002</v>
-      </c>
-      <c r="F96" s="1">
-        <v>1270</v>
-      </c>
-      <c r="G96" s="2">
-        <f t="shared" si="0"/>
-        <v>656.59</v>
-      </c>
-      <c r="H96" s="2">
-        <f t="shared" si="1"/>
-        <v>613.41</v>
-      </c>
-      <c r="I96" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0703933747412009</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B97" s="1">
-        <v>19</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="1">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F97" s="1">
-        <v>1556</v>
-      </c>
-      <c r="G97" s="2">
-        <f t="shared" si="0"/>
-        <v>757.77199999999993</v>
-      </c>
-      <c r="H97" s="2">
-        <f t="shared" si="1"/>
-        <v>798.22800000000007</v>
-      </c>
-      <c r="I97" s="3">
-        <f t="shared" si="2"/>
-        <v>0.94931773879142289</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B98" s="1">
-        <v>84</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="E98" s="1">
-        <v>0.436</v>
-      </c>
-      <c r="F98" s="1">
-        <v>849</v>
-      </c>
-      <c r="G98" s="2">
-        <f t="shared" si="0"/>
-        <v>370.16399999999999</v>
-      </c>
-      <c r="H98" s="2">
-        <f t="shared" si="1"/>
-        <v>478.83600000000001</v>
-      </c>
-      <c r="I98" s="3">
-        <f t="shared" si="2"/>
-        <v>0.77304964539007093</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B99" s="1">
-        <v>2</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="1">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="E99" s="1">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="F99" s="1">
-        <v>1505</v>
-      </c>
-      <c r="G99" s="2">
-        <f t="shared" si="0"/>
-        <v>815.71</v>
-      </c>
-      <c r="H99" s="2">
-        <f t="shared" si="1"/>
-        <v>689.29</v>
-      </c>
-      <c r="I99" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1834061135371181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B100" s="1">
-        <v>73</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D100" s="1">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="E100" s="1">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="F100" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G100" s="2">
-        <f t="shared" si="0"/>
-        <v>798</v>
-      </c>
-      <c r="H100" s="2">
-        <f t="shared" si="1"/>
-        <v>702</v>
-      </c>
-      <c r="I100" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1367521367521367</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B101" s="1">
-        <v>85</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="E101" s="1">
-        <v>0.55700000000000005</v>
-      </c>
-      <c r="F101" s="1">
-        <v>2336</v>
-      </c>
-      <c r="G101" s="2">
-        <f t="shared" si="0"/>
-        <v>1301.152</v>
-      </c>
-      <c r="H101" s="2">
-        <f t="shared" si="1"/>
-        <v>1034.848</v>
-      </c>
-      <c r="I101" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2573363431151243</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B102" s="1">
-        <v>78</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D102" s="1">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="E102" s="1">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1474</v>
-      </c>
-      <c r="G102" s="2">
-        <f t="shared" si="0"/>
-        <v>890.29599999999994</v>
-      </c>
-      <c r="H102" s="2">
-        <f t="shared" si="1"/>
-        <v>583.70400000000006</v>
-      </c>
-      <c r="I102" s="3">
-        <f t="shared" si="2"/>
-        <v>1.5252525252525251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B103" s="1">
-        <v>51</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D103" s="1">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="E103" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F103" s="1">
-        <v>1349</v>
-      </c>
-      <c r="G103" s="2">
-        <f t="shared" si="0"/>
-        <v>755.44</v>
-      </c>
-      <c r="H103" s="2">
-        <f t="shared" si="1"/>
-        <v>593.55999999999995</v>
-      </c>
-      <c r="I103" s="3">
-        <f t="shared" si="2"/>
-        <v>1.2727272727272729</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="7">
-        <v>44762</v>
-      </c>
-      <c r="B104" s="1">
-        <v>58</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" s="1">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="E104" s="1">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="F104" s="1">
-        <v>1504</v>
-      </c>
-      <c r="G104" s="2">
-        <f t="shared" si="0"/>
-        <v>810.65600000000006</v>
-      </c>
-      <c r="H104" s="2">
-        <f t="shared" si="1"/>
-        <v>693.34399999999994</v>
-      </c>
-      <c r="I104" s="3">
-        <f t="shared" si="2"/>
-        <v>1.1691973969631237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>